--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/10/Output_9_16.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/10/Output_9_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>389548.0288349694</v>
+        <v>254480.4661878627</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1766813.742108905</v>
+        <v>1664213.506290205</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>23979880.64533446</v>
+        <v>23879529.32664353</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4988080.197546519</v>
+        <v>5029276.375689553</v>
       </c>
     </row>
     <row r="11">
@@ -1858,16 +1858,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>2.141413534016885</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>2.141413534016885</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>2.141413534016885</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>1.88615704076207</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1943,10 +1943,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>2.141413534016885</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>2.141413534016885</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1970,10 +1970,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>2.141413534016885</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>1.886157040762071</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -2092,7 +2092,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>1.88615704076207</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2125,7 +2125,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.141413534016885</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -2143,10 +2143,10 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>2.141413534016885</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>2.141413534016885</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2159,16 +2159,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1.886157040762071</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>2.141413534016885</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>2.141413534016885</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -2183,7 +2183,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>2.141413534016885</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2320,7 +2320,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>4.28282706803352</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2332,10 +2332,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>16.47709305748432</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>14.51302356503218</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2362,10 +2362,10 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>4.28282706803352</v>
+        <v>16.47709305748432</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>16.47709305748432</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -2383,10 +2383,10 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>4.28282706803352</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>3.772314081523921</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2441,25 +2441,25 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>3.772314081523921</v>
+        <v>14.51302356503218</v>
       </c>
       <c r="R24" t="n">
-        <v>4.28282706803352</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>16.47709305748432</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>4.28282706803352</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>16.47709305748432</v>
       </c>
       <c r="W24" t="n">
-        <v>4.28282706803352</v>
+        <v>16.47709305748432</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -2560,7 +2560,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>16.47709305748432</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -2578,7 +2578,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>4.28282706803352</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -2599,7 +2599,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>4.28282706803352</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -2611,16 +2611,16 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>3.772314081523921</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>4.28282706803352</v>
+        <v>16.47709305748432</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>16.47709305748432</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>14.51302356503218</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2648,10 +2648,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>3.772314081523921</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>4.28282706803352</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2681,28 +2681,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>14.51302356503218</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>16.47709305748432</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>16.47709305748432</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>4.28282706803352</v>
+        <v>16.47709305748432</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>4.28282706803352</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2791,10 +2791,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>4.28282706803352</v>
+        <v>14.51302356503218</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>16.47709305748432</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2803,16 +2803,16 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>16.47709305748432</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>16.47709305748432</v>
       </c>
       <c r="I29" t="n">
-        <v>4.28282706803352</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2836,7 +2836,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>3.772314081523921</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -2860,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>4.28282706803352</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2879,10 +2879,10 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>4.28282706803352</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>4.28282706803352</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -2924,16 +2924,16 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>16.47709305748432</v>
       </c>
       <c r="U30" t="n">
-        <v>3.772314081523921</v>
+        <v>16.47709305748432</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>16.47709305748432</v>
       </c>
       <c r="W30" t="n">
-        <v>4.28282706803352</v>
+        <v>14.51302356503218</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>14.51302356503218</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3040,10 +3040,10 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>4.28282706803352</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.772314081523921</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3076,22 +3076,22 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>16.47709305748432</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>16.47709305748432</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>4.28282706803352</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>4.28282706803352</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>16.47709305748432</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3107,16 +3107,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>16.47709305748432</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>16.47709305748432</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>16.47709305748432</v>
       </c>
       <c r="E33" t="n">
-        <v>4.28282706803352</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -3131,7 +3131,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>4.28282706803352</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3152,7 +3152,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>3.772314081523921</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -3167,10 +3167,10 @@
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>14.51302356503218</v>
       </c>
       <c r="W33" t="n">
-        <v>4.28282706803352</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -3277,10 +3277,10 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>3.772314081523921</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.28282706803352</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3310,7 +3310,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>16.47709305748431</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -3322,16 +3322,16 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>4.28282706803352</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>4.28282706803352</v>
+        <v>16.47709305748431</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>16.47709305748431</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>14.51302356503218</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3347,7 +3347,7 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>4.28282706803352</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -3398,19 +3398,19 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>16.47709305748431</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>16.47709305748431</v>
       </c>
       <c r="V36" t="n">
-        <v>3.772314081523921</v>
+        <v>16.47709305748431</v>
       </c>
       <c r="W36" t="n">
-        <v>4.28282706803352</v>
+        <v>14.51302356503218</v>
       </c>
       <c r="X36" t="n">
-        <v>4.28282706803352</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>4.28282706803352</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3511,16 +3511,16 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>14.51302356503218</v>
       </c>
       <c r="F38" t="n">
-        <v>3.772314081523921</v>
+        <v>16.47709305748431</v>
       </c>
       <c r="G38" t="n">
-        <v>4.28282706803352</v>
+        <v>16.47709305748431</v>
       </c>
       <c r="H38" t="n">
-        <v>4.28282706803352</v>
+        <v>16.47709305748431</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3596,7 +3596,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>3.772314081523921</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3632,25 +3632,25 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>4.28282706803352</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>4.28282706803352</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>4.28282706803352</v>
+        <v>16.47709305748431</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>16.47709305748431</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>16.47709305748431</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>14.51302356503218</v>
       </c>
     </row>
     <row r="40">
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>1.886157040761851</v>
+        <v>16.47709305748431</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3784,22 +3784,22 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>14.51302356503218</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>2.141413534016635</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>2.141413534016635</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>2.141413534016635</v>
+        <v>16.47709305748431</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>16.47709305748431</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -3833,7 +3833,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>14.51302356503218</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3863,31 +3863,31 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>2.141413534016635</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>16.47709305748431</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>16.47709305748431</v>
       </c>
       <c r="U42" t="n">
-        <v>2.141413534016635</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>2.141413534016635</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>1.886157040761851</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>16.47709305748431</v>
       </c>
     </row>
     <row r="43">
@@ -3979,7 +3979,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>14.51302356503218</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -3988,10 +3988,10 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>16.47709305748431</v>
       </c>
       <c r="G44" t="n">
-        <v>2.141413534016635</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4021,10 +4021,10 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>2.141413534016635</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>2.141413534016635</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4033,10 +4033,10 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>1.886157040761851</v>
+        <v>16.47709305748431</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>16.47709305748431</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4055,7 +4055,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>16.47709305748431</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -4100,25 +4100,25 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.886157040761851</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>2.141413534016635</v>
+        <v>16.47709305748431</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>16.47709305748431</v>
       </c>
       <c r="T45" t="n">
-        <v>2.141413534016635</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>14.51302356503218</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>2.141413534016635</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>8.56565413606754</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>8.56565413606754</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>8.56565413606754</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>8.56565413606754</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>8.56565413606754</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>6.40261016231311</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>4.23956618855868</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>2.07652221480425</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0.1713130827213508</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0.1713130827213508</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>2.291312481398067</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>4.411311880074782</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>6.531311278751499</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>8.56565413606754</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>8.56565413606754</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>8.56565413606754</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>8.56565413606754</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>8.56565413606754</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>8.56565413606754</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>8.56565413606754</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>8.56565413606754</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>8.56565413606754</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>8.56565413606754</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>8.56565413606754</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>4.497401030230209</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>4.497401030230209</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>4.497401030230209</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>4.497401030230209</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>4.497401030230209</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>4.497401030230209</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>4.497401030230209</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>2.33435705647578</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.1713130827213508</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0.1713130827213508</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>2.205655940037391</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>4.325655338714107</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>6.445654737390823</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>8.56565413606754</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>8.56565413606754</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>8.56565413606754</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>6.40261016231311</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>4.497401030230209</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>4.497401030230209</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>4.497401030230209</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>4.497401030230209</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>4.497401030230209</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>4.497401030230209</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>4.497401030230209</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.1713130827213508</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1713130827213508</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0.1713130827213508</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0.1713130827213508</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1713130827213508</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1713130827213508</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.1713130827213508</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0.1713130827213508</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0.1713130827213508</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>0.1713130827213508</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0.1713130827213508</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0.1713130827213508</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>0.1713130827213508</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>0.1713130827213508</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0.1713130827213508</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.1713130827213508</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0.1713130827213508</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0.1713130827213508</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0.1713130827213508</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1713130827213508</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0.1713130827213508</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0.1713130827213508</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0.1713130827213508</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.1713130827213508</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2.07652221480425</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>2.07652221480425</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>2.07652221480425</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>2.07652221480425</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1713130827213508</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1713130827213508</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1713130827213508</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0.1713130827213508</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0.1713130827213508</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0.1713130827213508</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0.1713130827213508</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>2.291312481398067</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>4.411311880074782</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>6.445654737390823</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>8.56565413606754</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>6.40261016231311</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>6.40261016231311</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>6.40261016231311</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>6.40261016231311</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>6.40261016231311</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>6.40261016231311</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>4.23956618855868</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>2.07652221480425</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>2.07652221480425</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>6.660445003984639</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>4.497401030230209</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>4.497401030230209</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>2.33435705647578</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>2.33435705647578</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.33435705647578</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>2.33435705647578</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>2.33435705647578</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.1713130827213508</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0.1713130827213508</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>2.291312481398067</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>4.411311880074782</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>6.531311278751499</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>8.56565413606754</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>8.56565413606754</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>8.56565413606754</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>8.56565413606754</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>8.56565413606754</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>8.56565413606754</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>8.56565413606754</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>8.56565413606754</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>8.56565413606754</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>8.56565413606754</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>8.56565413606754</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.1713130827213508</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0.1713130827213508</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0.1713130827213508</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0.1713130827213508</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1713130827213508</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1713130827213508</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.1713130827213508</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0.1713130827213508</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0.1713130827213508</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>0.1713130827213508</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0.1713130827213508</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0.1713130827213508</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>0.1713130827213508</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>0.1713130827213508</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>0.1713130827213508</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.1713130827213508</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0.1713130827213508</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0.1713130827213508</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0.1713130827213508</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1713130827213508</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0.1713130827213508</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0.1713130827213508</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0.1713130827213508</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.1713130827213508</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>4.668714112951289</v>
+        <v>32.62131554815076</v>
       </c>
       <c r="C23" t="n">
-        <v>0.3426261654426817</v>
+        <v>32.62131554815076</v>
       </c>
       <c r="D23" t="n">
-        <v>0.3426261654426817</v>
+        <v>32.62131554815076</v>
       </c>
       <c r="E23" t="n">
-        <v>0.3426261654426817</v>
+        <v>32.62131554815076</v>
       </c>
       <c r="F23" t="n">
-        <v>0.3426261654426817</v>
+        <v>32.62131554815076</v>
       </c>
       <c r="G23" t="n">
-        <v>0.3426261654426817</v>
+        <v>15.97778720725751</v>
       </c>
       <c r="H23" t="n">
-        <v>0.3426261654426817</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="I23" t="n">
-        <v>0.3426261654426817</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="J23" t="n">
-        <v>0.3426261654426817</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="K23" t="n">
-        <v>0.3426261654426817</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="L23" t="n">
-        <v>4.582624962795867</v>
+        <v>17.63048957150822</v>
       </c>
       <c r="M23" t="n">
-        <v>8.822623760149053</v>
+        <v>33.9428116984177</v>
       </c>
       <c r="N23" t="n">
-        <v>13.06262255750224</v>
+        <v>50.25513382532718</v>
       </c>
       <c r="O23" t="n">
-        <v>17.13130827213408</v>
+        <v>65.90837222993727</v>
       </c>
       <c r="P23" t="n">
-        <v>17.13130827213408</v>
+        <v>65.90837222993727</v>
       </c>
       <c r="Q23" t="n">
-        <v>12.80522032462547</v>
+        <v>49.26484388904402</v>
       </c>
       <c r="R23" t="n">
-        <v>12.80522032462547</v>
+        <v>32.62131554815076</v>
       </c>
       <c r="S23" t="n">
-        <v>12.80522032462547</v>
+        <v>32.62131554815076</v>
       </c>
       <c r="T23" t="n">
-        <v>12.80522032462547</v>
+        <v>32.62131554815076</v>
       </c>
       <c r="U23" t="n">
-        <v>12.80522032462547</v>
+        <v>32.62131554815076</v>
       </c>
       <c r="V23" t="n">
-        <v>12.80522032462547</v>
+        <v>32.62131554815076</v>
       </c>
       <c r="W23" t="n">
-        <v>12.80522032462547</v>
+        <v>32.62131554815076</v>
       </c>
       <c r="X23" t="n">
-        <v>8.479132377116866</v>
+        <v>32.62131554815076</v>
       </c>
       <c r="Y23" t="n">
-        <v>4.668714112951289</v>
+        <v>32.62131554815076</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.3426261654426817</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="C24" t="n">
-        <v>0.3426261654426817</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="D24" t="n">
-        <v>0.3426261654426817</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="E24" t="n">
-        <v>0.3426261654426817</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="F24" t="n">
-        <v>0.3426261654426817</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="G24" t="n">
-        <v>0.3426261654426817</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="H24" t="n">
-        <v>0.3426261654426817</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="I24" t="n">
-        <v>0.3426261654426817</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="J24" t="n">
-        <v>0.3426261654426817</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="K24" t="n">
-        <v>0.3426261654426817</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="L24" t="n">
-        <v>4.582624962795867</v>
+        <v>16.97140584920884</v>
       </c>
       <c r="M24" t="n">
-        <v>8.822623760149053</v>
+        <v>33.28372797611831</v>
       </c>
       <c r="N24" t="n">
-        <v>12.8913094747809</v>
+        <v>49.59605010302779</v>
       </c>
       <c r="O24" t="n">
-        <v>17.13130827213408</v>
+        <v>65.90837222993727</v>
       </c>
       <c r="P24" t="n">
-        <v>17.13130827213408</v>
+        <v>65.90837222993727</v>
       </c>
       <c r="Q24" t="n">
-        <v>13.3208900079685</v>
+        <v>51.24875246727851</v>
       </c>
       <c r="R24" t="n">
-        <v>8.994802060459897</v>
+        <v>51.24875246727851</v>
       </c>
       <c r="S24" t="n">
-        <v>8.994802060459897</v>
+        <v>34.60522412638525</v>
       </c>
       <c r="T24" t="n">
-        <v>8.994802060459897</v>
+        <v>34.60522412638525</v>
       </c>
       <c r="U24" t="n">
-        <v>4.668714112951289</v>
+        <v>34.60522412638525</v>
       </c>
       <c r="V24" t="n">
-        <v>4.668714112951289</v>
+        <v>17.961695785492</v>
       </c>
       <c r="W24" t="n">
-        <v>0.3426261654426817</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="X24" t="n">
-        <v>0.3426261654426817</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.3426261654426817</v>
+        <v>1.318167444598745</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.3426261654426817</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="C25" t="n">
-        <v>0.3426261654426817</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="D25" t="n">
-        <v>0.3426261654426817</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="E25" t="n">
-        <v>0.3426261654426817</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="F25" t="n">
-        <v>0.3426261654426817</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="G25" t="n">
-        <v>0.3426261654426817</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="H25" t="n">
-        <v>0.3426261654426817</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="I25" t="n">
-        <v>0.3426261654426817</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="J25" t="n">
-        <v>0.3426261654426817</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="K25" t="n">
-        <v>0.3426261654426817</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="L25" t="n">
-        <v>0.3426261654426817</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="M25" t="n">
-        <v>0.3426261654426817</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="N25" t="n">
-        <v>0.3426261654426817</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="O25" t="n">
-        <v>0.3426261654426817</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="P25" t="n">
-        <v>0.3426261654426817</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.3426261654426817</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="R25" t="n">
-        <v>0.3426261654426817</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="S25" t="n">
-        <v>0.3426261654426817</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="T25" t="n">
-        <v>0.3426261654426817</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="U25" t="n">
-        <v>0.3426261654426817</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="V25" t="n">
-        <v>0.3426261654426817</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="W25" t="n">
-        <v>0.3426261654426817</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="X25" t="n">
-        <v>0.3426261654426817</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.3426261654426817</v>
+        <v>1.318167444598745</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>4.668714112951289</v>
+        <v>17.961695785492</v>
       </c>
       <c r="C26" t="n">
-        <v>4.668714112951289</v>
+        <v>17.961695785492</v>
       </c>
       <c r="D26" t="n">
-        <v>4.668714112951289</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="E26" t="n">
-        <v>4.668714112951289</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="F26" t="n">
-        <v>4.668714112951289</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="G26" t="n">
-        <v>4.668714112951289</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="H26" t="n">
-        <v>4.668714112951289</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="I26" t="n">
-        <v>4.668714112951289</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="J26" t="n">
-        <v>0.3426261654426817</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="K26" t="n">
-        <v>3.422840165109864</v>
+        <v>2.887043131405913</v>
       </c>
       <c r="L26" t="n">
-        <v>7.66283896246305</v>
+        <v>19.19936525831539</v>
       </c>
       <c r="M26" t="n">
-        <v>11.90283775981623</v>
+        <v>19.19936525831539</v>
       </c>
       <c r="N26" t="n">
-        <v>14.0228371584927</v>
+        <v>35.51168738522486</v>
       </c>
       <c r="O26" t="n">
-        <v>17.13130827213408</v>
+        <v>50.18030379588818</v>
       </c>
       <c r="P26" t="n">
-        <v>17.13130827213408</v>
+        <v>65.90837222993727</v>
       </c>
       <c r="Q26" t="n">
-        <v>12.80522032462547</v>
+        <v>65.90837222993727</v>
       </c>
       <c r="R26" t="n">
-        <v>12.80522032462547</v>
+        <v>65.90837222993727</v>
       </c>
       <c r="S26" t="n">
-        <v>12.80522032462547</v>
+        <v>65.90837222993727</v>
       </c>
       <c r="T26" t="n">
-        <v>12.80522032462547</v>
+        <v>65.90837222993727</v>
       </c>
       <c r="U26" t="n">
-        <v>8.994802060459897</v>
+        <v>65.90837222993727</v>
       </c>
       <c r="V26" t="n">
-        <v>4.668714112951289</v>
+        <v>49.26484388904402</v>
       </c>
       <c r="W26" t="n">
-        <v>4.668714112951289</v>
+        <v>32.62131554815076</v>
       </c>
       <c r="X26" t="n">
-        <v>4.668714112951289</v>
+        <v>17.961695785492</v>
       </c>
       <c r="Y26" t="n">
-        <v>4.668714112951289</v>
+        <v>17.961695785492</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>8.479132377116866</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="C27" t="n">
-        <v>8.479132377116866</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="D27" t="n">
-        <v>8.479132377116866</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="E27" t="n">
-        <v>8.479132377116866</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="F27" t="n">
-        <v>8.479132377116866</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="G27" t="n">
-        <v>4.668714112951289</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="H27" t="n">
-        <v>0.3426261654426817</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="I27" t="n">
-        <v>0.3426261654426817</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="J27" t="n">
-        <v>0.3426261654426817</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="K27" t="n">
-        <v>0.3426261654426817</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="L27" t="n">
-        <v>4.582624962795867</v>
+        <v>16.97140584920884</v>
       </c>
       <c r="M27" t="n">
-        <v>8.822623760149053</v>
+        <v>33.28372797611831</v>
       </c>
       <c r="N27" t="n">
-        <v>13.06262255750224</v>
+        <v>49.59605010302779</v>
       </c>
       <c r="O27" t="n">
-        <v>17.13130827213408</v>
+        <v>65.90837222993727</v>
       </c>
       <c r="P27" t="n">
-        <v>17.13130827213408</v>
+        <v>65.90837222993727</v>
       </c>
       <c r="Q27" t="n">
-        <v>17.13130827213408</v>
+        <v>65.90837222993727</v>
       </c>
       <c r="R27" t="n">
-        <v>17.13130827213408</v>
+        <v>51.24875246727851</v>
       </c>
       <c r="S27" t="n">
-        <v>17.13130827213408</v>
+        <v>34.60522412638525</v>
       </c>
       <c r="T27" t="n">
-        <v>17.13130827213408</v>
+        <v>34.60522412638525</v>
       </c>
       <c r="U27" t="n">
-        <v>17.13130827213408</v>
+        <v>17.961695785492</v>
       </c>
       <c r="V27" t="n">
-        <v>17.13130827213408</v>
+        <v>17.961695785492</v>
       </c>
       <c r="W27" t="n">
-        <v>12.80522032462547</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="X27" t="n">
-        <v>12.80522032462547</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="Y27" t="n">
-        <v>8.479132377116866</v>
+        <v>1.318167444598745</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.3426261654426817</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="C28" t="n">
-        <v>0.3426261654426817</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="D28" t="n">
-        <v>0.3426261654426817</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="E28" t="n">
-        <v>0.3426261654426817</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="F28" t="n">
-        <v>0.3426261654426817</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="G28" t="n">
-        <v>0.3426261654426817</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="H28" t="n">
-        <v>0.3426261654426817</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="I28" t="n">
-        <v>0.3426261654426817</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="J28" t="n">
-        <v>0.3426261654426817</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="K28" t="n">
-        <v>0.3426261654426817</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="L28" t="n">
-        <v>0.3426261654426817</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="M28" t="n">
-        <v>0.3426261654426817</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="N28" t="n">
-        <v>0.3426261654426817</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="O28" t="n">
-        <v>0.3426261654426817</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="P28" t="n">
-        <v>0.3426261654426817</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.3426261654426817</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="R28" t="n">
-        <v>0.3426261654426817</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="S28" t="n">
-        <v>0.3426261654426817</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="T28" t="n">
-        <v>0.3426261654426817</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="U28" t="n">
-        <v>0.3426261654426817</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="V28" t="n">
-        <v>0.3426261654426817</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="W28" t="n">
-        <v>0.3426261654426817</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="X28" t="n">
-        <v>0.3426261654426817</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="Y28" t="n">
-        <v>0.3426261654426817</v>
+        <v>1.318167444598745</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>4.668714112951289</v>
+        <v>51.24875246727851</v>
       </c>
       <c r="C29" t="n">
-        <v>4.668714112951289</v>
+        <v>34.60522412638525</v>
       </c>
       <c r="D29" t="n">
-        <v>4.668714112951289</v>
+        <v>34.60522412638525</v>
       </c>
       <c r="E29" t="n">
-        <v>4.668714112951289</v>
+        <v>34.60522412638525</v>
       </c>
       <c r="F29" t="n">
-        <v>4.668714112951289</v>
+        <v>17.961695785492</v>
       </c>
       <c r="G29" t="n">
-        <v>4.668714112951289</v>
+        <v>17.961695785492</v>
       </c>
       <c r="H29" t="n">
-        <v>4.668714112951289</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="I29" t="n">
-        <v>0.3426261654426817</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="J29" t="n">
-        <v>0.3426261654426817</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="K29" t="n">
-        <v>3.422840165109864</v>
+        <v>2.887043131405913</v>
       </c>
       <c r="L29" t="n">
-        <v>7.66283896246305</v>
+        <v>19.19936525831539</v>
       </c>
       <c r="M29" t="n">
-        <v>11.90283775981623</v>
+        <v>35.51168738522486</v>
       </c>
       <c r="N29" t="n">
-        <v>16.14283655716942</v>
+        <v>51.82400951213434</v>
       </c>
       <c r="O29" t="n">
-        <v>16.14283655716942</v>
+        <v>65.90837222993727</v>
       </c>
       <c r="P29" t="n">
-        <v>17.13130827213408</v>
+        <v>65.90837222993727</v>
       </c>
       <c r="Q29" t="n">
-        <v>13.3208900079685</v>
+        <v>65.90837222993727</v>
       </c>
       <c r="R29" t="n">
-        <v>13.3208900079685</v>
+        <v>65.90837222993727</v>
       </c>
       <c r="S29" t="n">
-        <v>13.3208900079685</v>
+        <v>65.90837222993727</v>
       </c>
       <c r="T29" t="n">
-        <v>13.3208900079685</v>
+        <v>65.90837222993727</v>
       </c>
       <c r="U29" t="n">
-        <v>13.3208900079685</v>
+        <v>65.90837222993727</v>
       </c>
       <c r="V29" t="n">
-        <v>13.3208900079685</v>
+        <v>65.90837222993727</v>
       </c>
       <c r="W29" t="n">
-        <v>13.3208900079685</v>
+        <v>65.90837222993727</v>
       </c>
       <c r="X29" t="n">
-        <v>13.3208900079685</v>
+        <v>65.90837222993727</v>
       </c>
       <c r="Y29" t="n">
-        <v>8.994802060459897</v>
+        <v>65.90837222993727</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>8.994802060459897</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="C30" t="n">
-        <v>8.994802060459897</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="D30" t="n">
-        <v>8.994802060459897</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="E30" t="n">
-        <v>4.668714112951289</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="F30" t="n">
-        <v>0.3426261654426817</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="G30" t="n">
-        <v>0.3426261654426817</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="H30" t="n">
-        <v>0.3426261654426817</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="I30" t="n">
-        <v>0.3426261654426817</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="J30" t="n">
-        <v>0.3426261654426817</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="K30" t="n">
-        <v>0.3426261654426817</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="L30" t="n">
-        <v>4.582624962795867</v>
+        <v>16.97140584920884</v>
       </c>
       <c r="M30" t="n">
-        <v>8.822623760149053</v>
+        <v>33.28372797611831</v>
       </c>
       <c r="N30" t="n">
-        <v>13.06262255750224</v>
+        <v>49.59605010302779</v>
       </c>
       <c r="O30" t="n">
-        <v>17.13130827213408</v>
+        <v>65.90837222993727</v>
       </c>
       <c r="P30" t="n">
-        <v>17.13130827213408</v>
+        <v>65.90837222993727</v>
       </c>
       <c r="Q30" t="n">
-        <v>17.13130827213408</v>
+        <v>65.90837222993727</v>
       </c>
       <c r="R30" t="n">
-        <v>17.13130827213408</v>
+        <v>65.90837222993727</v>
       </c>
       <c r="S30" t="n">
-        <v>17.13130827213408</v>
+        <v>65.90837222993727</v>
       </c>
       <c r="T30" t="n">
-        <v>17.13130827213408</v>
+        <v>49.26484388904402</v>
       </c>
       <c r="U30" t="n">
-        <v>13.3208900079685</v>
+        <v>32.62131554815076</v>
       </c>
       <c r="V30" t="n">
-        <v>13.3208900079685</v>
+        <v>15.97778720725751</v>
       </c>
       <c r="W30" t="n">
-        <v>8.994802060459897</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="X30" t="n">
-        <v>8.994802060459897</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="Y30" t="n">
-        <v>8.994802060459897</v>
+        <v>1.318167444598745</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>17.13130827213408</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="C31" t="n">
-        <v>17.13130827213408</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="D31" t="n">
-        <v>17.13130827213408</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="E31" t="n">
-        <v>17.13130827213408</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="F31" t="n">
-        <v>17.13130827213408</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="G31" t="n">
-        <v>17.13130827213408</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="H31" t="n">
-        <v>17.13130827213408</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="I31" t="n">
-        <v>17.13130827213408</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="J31" t="n">
-        <v>17.13130827213408</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="K31" t="n">
-        <v>17.13130827213408</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="L31" t="n">
-        <v>17.13130827213408</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="M31" t="n">
-        <v>17.13130827213408</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="N31" t="n">
-        <v>17.13130827213408</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="O31" t="n">
-        <v>17.13130827213408</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="P31" t="n">
-        <v>17.13130827213408</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="Q31" t="n">
-        <v>17.13130827213408</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="R31" t="n">
-        <v>17.13130827213408</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="S31" t="n">
-        <v>17.13130827213408</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="T31" t="n">
-        <v>17.13130827213408</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="U31" t="n">
-        <v>17.13130827213408</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="V31" t="n">
-        <v>17.13130827213408</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="W31" t="n">
-        <v>17.13130827213408</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="X31" t="n">
-        <v>17.13130827213408</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="Y31" t="n">
-        <v>17.13130827213408</v>
+        <v>1.318167444598745</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>8.479132377116866</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="C32" t="n">
-        <v>8.479132377116866</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="D32" t="n">
-        <v>8.479132377116866</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="E32" t="n">
-        <v>8.479132377116866</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="F32" t="n">
-        <v>4.153044429608259</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="G32" t="n">
-        <v>0.3426261654426817</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="H32" t="n">
-        <v>0.3426261654426817</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="I32" t="n">
-        <v>0.3426261654426817</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="J32" t="n">
-        <v>0.3426261654426817</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="K32" t="n">
-        <v>0.3426261654426817</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="L32" t="n">
-        <v>0.3426261654426817</v>
+        <v>17.63048957150822</v>
       </c>
       <c r="M32" t="n">
-        <v>4.411311880074527</v>
+        <v>33.9428116984177</v>
       </c>
       <c r="N32" t="n">
-        <v>8.651310677427713</v>
+        <v>50.25513382532718</v>
       </c>
       <c r="O32" t="n">
-        <v>12.8913094747809</v>
+        <v>65.90837222993727</v>
       </c>
       <c r="P32" t="n">
-        <v>17.13130827213408</v>
+        <v>65.90837222993727</v>
       </c>
       <c r="Q32" t="n">
-        <v>17.13130827213408</v>
+        <v>65.90837222993727</v>
       </c>
       <c r="R32" t="n">
-        <v>17.13130827213408</v>
+        <v>49.26484388904402</v>
       </c>
       <c r="S32" t="n">
-        <v>17.13130827213408</v>
+        <v>32.62131554815076</v>
       </c>
       <c r="T32" t="n">
-        <v>17.13130827213408</v>
+        <v>32.62131554815076</v>
       </c>
       <c r="U32" t="n">
-        <v>12.80522032462547</v>
+        <v>32.62131554815076</v>
       </c>
       <c r="V32" t="n">
-        <v>8.479132377116866</v>
+        <v>32.62131554815076</v>
       </c>
       <c r="W32" t="n">
-        <v>8.479132377116866</v>
+        <v>15.97778720725751</v>
       </c>
       <c r="X32" t="n">
-        <v>8.479132377116866</v>
+        <v>15.97778720725751</v>
       </c>
       <c r="Y32" t="n">
-        <v>8.479132377116866</v>
+        <v>15.97778720725751</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>8.994802060459897</v>
+        <v>34.60522412638525</v>
       </c>
       <c r="C33" t="n">
-        <v>8.994802060459897</v>
+        <v>17.961695785492</v>
       </c>
       <c r="D33" t="n">
-        <v>8.994802060459897</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="E33" t="n">
-        <v>4.668714112951289</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="F33" t="n">
-        <v>4.668714112951289</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="G33" t="n">
-        <v>4.668714112951289</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="H33" t="n">
-        <v>4.668714112951289</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="I33" t="n">
-        <v>4.668714112951289</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="J33" t="n">
-        <v>0.3426261654426817</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="K33" t="n">
-        <v>0.3426261654426817</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="L33" t="n">
-        <v>4.582624962795867</v>
+        <v>16.97140584920884</v>
       </c>
       <c r="M33" t="n">
-        <v>8.822623760149053</v>
+        <v>33.28372797611831</v>
       </c>
       <c r="N33" t="n">
-        <v>13.06262255750224</v>
+        <v>49.59605010302779</v>
       </c>
       <c r="O33" t="n">
-        <v>17.13130827213408</v>
+        <v>65.90837222993727</v>
       </c>
       <c r="P33" t="n">
-        <v>17.13130827213408</v>
+        <v>65.90837222993727</v>
       </c>
       <c r="Q33" t="n">
-        <v>13.3208900079685</v>
+        <v>65.90837222993727</v>
       </c>
       <c r="R33" t="n">
-        <v>13.3208900079685</v>
+        <v>65.90837222993727</v>
       </c>
       <c r="S33" t="n">
-        <v>13.3208900079685</v>
+        <v>65.90837222993727</v>
       </c>
       <c r="T33" t="n">
-        <v>13.3208900079685</v>
+        <v>65.90837222993727</v>
       </c>
       <c r="U33" t="n">
-        <v>13.3208900079685</v>
+        <v>65.90837222993727</v>
       </c>
       <c r="V33" t="n">
-        <v>13.3208900079685</v>
+        <v>51.24875246727851</v>
       </c>
       <c r="W33" t="n">
-        <v>8.994802060459897</v>
+        <v>51.24875246727851</v>
       </c>
       <c r="X33" t="n">
-        <v>8.994802060459897</v>
+        <v>51.24875246727851</v>
       </c>
       <c r="Y33" t="n">
-        <v>8.994802060459897</v>
+        <v>51.24875246727851</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>17.13130827213408</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="C34" t="n">
-        <v>17.13130827213408</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="D34" t="n">
-        <v>17.13130827213408</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="E34" t="n">
-        <v>17.13130827213408</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="F34" t="n">
-        <v>17.13130827213408</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="G34" t="n">
-        <v>17.13130827213408</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="H34" t="n">
-        <v>17.13130827213408</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="I34" t="n">
-        <v>17.13130827213408</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="J34" t="n">
-        <v>17.13130827213408</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="K34" t="n">
-        <v>17.13130827213408</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="L34" t="n">
-        <v>17.13130827213408</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="M34" t="n">
-        <v>17.13130827213408</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="N34" t="n">
-        <v>17.13130827213408</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="O34" t="n">
-        <v>17.13130827213408</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="P34" t="n">
-        <v>17.13130827213408</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="Q34" t="n">
-        <v>17.13130827213408</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="R34" t="n">
-        <v>17.13130827213408</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="S34" t="n">
-        <v>17.13130827213408</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="T34" t="n">
-        <v>17.13130827213408</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="U34" t="n">
-        <v>17.13130827213408</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="V34" t="n">
-        <v>17.13130827213408</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="W34" t="n">
-        <v>17.13130827213408</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="X34" t="n">
-        <v>17.13130827213408</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="Y34" t="n">
-        <v>17.13130827213408</v>
+        <v>1.318167444598745</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>8.479132377116866</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="C35" t="n">
-        <v>8.479132377116866</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="D35" t="n">
-        <v>8.479132377116866</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="E35" t="n">
-        <v>8.479132377116866</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="F35" t="n">
-        <v>4.668714112951289</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="G35" t="n">
-        <v>0.3426261654426817</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="H35" t="n">
-        <v>0.3426261654426817</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="I35" t="n">
-        <v>0.3426261654426817</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="J35" t="n">
-        <v>0.3426261654426817</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="K35" t="n">
-        <v>0.3426261654426817</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="L35" t="n">
-        <v>0.3426261654426817</v>
+        <v>17.63048957150822</v>
       </c>
       <c r="M35" t="n">
-        <v>4.411311880074527</v>
+        <v>33.94281169841769</v>
       </c>
       <c r="N35" t="n">
-        <v>8.651310677427713</v>
+        <v>50.25513382532716</v>
       </c>
       <c r="O35" t="n">
-        <v>12.8913094747809</v>
+        <v>65.90837222993726</v>
       </c>
       <c r="P35" t="n">
-        <v>17.13130827213408</v>
+        <v>65.90837222993726</v>
       </c>
       <c r="Q35" t="n">
-        <v>17.13130827213408</v>
+        <v>49.26484388904401</v>
       </c>
       <c r="R35" t="n">
-        <v>17.13130827213408</v>
+        <v>49.26484388904401</v>
       </c>
       <c r="S35" t="n">
-        <v>17.13130827213408</v>
+        <v>49.26484388904401</v>
       </c>
       <c r="T35" t="n">
-        <v>17.13130827213408</v>
+        <v>49.26484388904401</v>
       </c>
       <c r="U35" t="n">
-        <v>12.80522032462547</v>
+        <v>49.26484388904401</v>
       </c>
       <c r="V35" t="n">
-        <v>8.479132377116866</v>
+        <v>32.62131554815076</v>
       </c>
       <c r="W35" t="n">
-        <v>8.479132377116866</v>
+        <v>15.97778720725751</v>
       </c>
       <c r="X35" t="n">
-        <v>8.479132377116866</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="Y35" t="n">
-        <v>8.479132377116866</v>
+        <v>1.318167444598745</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>4.668714112951289</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="C36" t="n">
-        <v>0.3426261654426817</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="D36" t="n">
-        <v>0.3426261654426817</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="E36" t="n">
-        <v>0.3426261654426817</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="F36" t="n">
-        <v>0.3426261654426817</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="G36" t="n">
-        <v>0.3426261654426817</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="H36" t="n">
-        <v>0.3426261654426817</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="I36" t="n">
-        <v>0.3426261654426817</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="J36" t="n">
-        <v>0.3426261654426817</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="K36" t="n">
-        <v>0.3426261654426817</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="L36" t="n">
-        <v>4.582624962795867</v>
+        <v>16.97140584920884</v>
       </c>
       <c r="M36" t="n">
-        <v>8.822623760149053</v>
+        <v>33.28372797611831</v>
       </c>
       <c r="N36" t="n">
-        <v>13.06262255750224</v>
+        <v>49.59605010302779</v>
       </c>
       <c r="O36" t="n">
-        <v>17.13130827213408</v>
+        <v>65.90837222993726</v>
       </c>
       <c r="P36" t="n">
-        <v>17.13130827213408</v>
+        <v>65.90837222993726</v>
       </c>
       <c r="Q36" t="n">
-        <v>17.13130827213408</v>
+        <v>65.90837222993726</v>
       </c>
       <c r="R36" t="n">
-        <v>17.13130827213408</v>
+        <v>65.90837222993726</v>
       </c>
       <c r="S36" t="n">
-        <v>17.13130827213408</v>
+        <v>65.90837222993726</v>
       </c>
       <c r="T36" t="n">
-        <v>17.13130827213408</v>
+        <v>49.26484388904401</v>
       </c>
       <c r="U36" t="n">
-        <v>17.13130827213408</v>
+        <v>32.62131554815076</v>
       </c>
       <c r="V36" t="n">
-        <v>13.3208900079685</v>
+        <v>15.97778720725751</v>
       </c>
       <c r="W36" t="n">
-        <v>8.994802060459897</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="X36" t="n">
-        <v>4.668714112951289</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="Y36" t="n">
-        <v>4.668714112951289</v>
+        <v>1.318167444598745</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>17.13130827213408</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="C37" t="n">
-        <v>17.13130827213408</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="D37" t="n">
-        <v>17.13130827213408</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="E37" t="n">
-        <v>17.13130827213408</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="F37" t="n">
-        <v>17.13130827213408</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="G37" t="n">
-        <v>17.13130827213408</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="H37" t="n">
-        <v>17.13130827213408</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="I37" t="n">
-        <v>17.13130827213408</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="J37" t="n">
-        <v>17.13130827213408</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="K37" t="n">
-        <v>17.13130827213408</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="L37" t="n">
-        <v>17.13130827213408</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="M37" t="n">
-        <v>17.13130827213408</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="N37" t="n">
-        <v>17.13130827213408</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="O37" t="n">
-        <v>17.13130827213408</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="P37" t="n">
-        <v>17.13130827213408</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="Q37" t="n">
-        <v>17.13130827213408</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="R37" t="n">
-        <v>17.13130827213408</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="S37" t="n">
-        <v>17.13130827213408</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="T37" t="n">
-        <v>17.13130827213408</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="U37" t="n">
-        <v>17.13130827213408</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="V37" t="n">
-        <v>17.13130827213408</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="W37" t="n">
-        <v>17.13130827213408</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="X37" t="n">
-        <v>17.13130827213408</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="Y37" t="n">
-        <v>17.13130827213408</v>
+        <v>1.318167444598745</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>12.80522032462547</v>
+        <v>65.90837222993726</v>
       </c>
       <c r="C38" t="n">
-        <v>12.80522032462547</v>
+        <v>65.90837222993726</v>
       </c>
       <c r="D38" t="n">
-        <v>12.80522032462547</v>
+        <v>65.90837222993726</v>
       </c>
       <c r="E38" t="n">
-        <v>12.80522032462547</v>
+        <v>51.24875246727849</v>
       </c>
       <c r="F38" t="n">
-        <v>8.994802060459897</v>
+        <v>34.60522412638524</v>
       </c>
       <c r="G38" t="n">
-        <v>4.668714112951289</v>
+        <v>17.96169578549199</v>
       </c>
       <c r="H38" t="n">
-        <v>0.3426261654426817</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="I38" t="n">
-        <v>0.3426261654426817</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="J38" t="n">
-        <v>0.3426261654426817</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="K38" t="n">
-        <v>0.3426261654426817</v>
+        <v>2.887043131405913</v>
       </c>
       <c r="L38" t="n">
-        <v>2.291312481398058</v>
+        <v>19.19936525831539</v>
       </c>
       <c r="M38" t="n">
-        <v>6.531311278751243</v>
+        <v>19.19936525831539</v>
       </c>
       <c r="N38" t="n">
-        <v>8.651310677427713</v>
+        <v>35.51168738522486</v>
       </c>
       <c r="O38" t="n">
-        <v>12.8913094747809</v>
+        <v>50.18030379588816</v>
       </c>
       <c r="P38" t="n">
-        <v>17.13130827213408</v>
+        <v>65.90837222993726</v>
       </c>
       <c r="Q38" t="n">
-        <v>17.13130827213408</v>
+        <v>65.90837222993726</v>
       </c>
       <c r="R38" t="n">
-        <v>17.13130827213408</v>
+        <v>65.90837222993726</v>
       </c>
       <c r="S38" t="n">
-        <v>17.13130827213408</v>
+        <v>65.90837222993726</v>
       </c>
       <c r="T38" t="n">
-        <v>17.13130827213408</v>
+        <v>65.90837222993726</v>
       </c>
       <c r="U38" t="n">
-        <v>17.13130827213408</v>
+        <v>65.90837222993726</v>
       </c>
       <c r="V38" t="n">
-        <v>17.13130827213408</v>
+        <v>65.90837222993726</v>
       </c>
       <c r="W38" t="n">
-        <v>17.13130827213408</v>
+        <v>65.90837222993726</v>
       </c>
       <c r="X38" t="n">
-        <v>17.13130827213408</v>
+        <v>65.90837222993726</v>
       </c>
       <c r="Y38" t="n">
-        <v>17.13130827213408</v>
+        <v>65.90837222993726</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>4.153044429608259</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="C39" t="n">
-        <v>4.153044429608259</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="D39" t="n">
-        <v>4.153044429608259</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="E39" t="n">
-        <v>4.153044429608259</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="F39" t="n">
-        <v>4.153044429608259</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="G39" t="n">
-        <v>0.3426261654426817</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="H39" t="n">
-        <v>0.3426261654426817</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="I39" t="n">
-        <v>0.3426261654426817</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="J39" t="n">
-        <v>0.3426261654426817</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="K39" t="n">
-        <v>0.3426261654426817</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="L39" t="n">
-        <v>4.411311880074527</v>
+        <v>16.97140584920884</v>
       </c>
       <c r="M39" t="n">
-        <v>8.651310677427713</v>
+        <v>33.28372797611831</v>
       </c>
       <c r="N39" t="n">
-        <v>12.8913094747809</v>
+        <v>49.59605010302778</v>
       </c>
       <c r="O39" t="n">
-        <v>17.13130827213408</v>
+        <v>65.90837222993726</v>
       </c>
       <c r="P39" t="n">
-        <v>17.13130827213408</v>
+        <v>65.90837222993726</v>
       </c>
       <c r="Q39" t="n">
-        <v>17.13130827213408</v>
+        <v>65.90837222993726</v>
       </c>
       <c r="R39" t="n">
-        <v>17.13130827213408</v>
+        <v>65.90837222993726</v>
       </c>
       <c r="S39" t="n">
-        <v>12.80522032462547</v>
+        <v>65.90837222993726</v>
       </c>
       <c r="T39" t="n">
-        <v>8.479132377116866</v>
+        <v>65.90837222993726</v>
       </c>
       <c r="U39" t="n">
-        <v>4.153044429608259</v>
+        <v>49.26484388904401</v>
       </c>
       <c r="V39" t="n">
-        <v>4.153044429608259</v>
+        <v>32.62131554815076</v>
       </c>
       <c r="W39" t="n">
-        <v>4.153044429608259</v>
+        <v>15.97778720725751</v>
       </c>
       <c r="X39" t="n">
-        <v>4.153044429608259</v>
+        <v>15.97778720725751</v>
       </c>
       <c r="Y39" t="n">
-        <v>4.153044429608259</v>
+        <v>1.318167444598745</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.3426261654426817</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="C40" t="n">
-        <v>0.3426261654426817</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="D40" t="n">
-        <v>0.3426261654426817</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="E40" t="n">
-        <v>0.3426261654426817</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="F40" t="n">
-        <v>0.3426261654426817</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="G40" t="n">
-        <v>0.3426261654426817</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="H40" t="n">
-        <v>0.3426261654426817</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="I40" t="n">
-        <v>0.3426261654426817</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="J40" t="n">
-        <v>0.3426261654426817</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="K40" t="n">
-        <v>0.3426261654426817</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="L40" t="n">
-        <v>0.3426261654426817</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="M40" t="n">
-        <v>0.3426261654426817</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="N40" t="n">
-        <v>0.3426261654426817</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="O40" t="n">
-        <v>0.3426261654426817</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="P40" t="n">
-        <v>0.3426261654426817</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.3426261654426817</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="R40" t="n">
-        <v>0.3426261654426817</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="S40" t="n">
-        <v>0.3426261654426817</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="T40" t="n">
-        <v>0.3426261654426817</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="U40" t="n">
-        <v>0.3426261654426817</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="V40" t="n">
-        <v>0.3426261654426817</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="W40" t="n">
-        <v>0.3426261654426817</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="X40" t="n">
-        <v>0.3426261654426817</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="Y40" t="n">
-        <v>0.3426261654426817</v>
+        <v>1.318167444598745</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2.076522214804009</v>
+        <v>17.96169578549199</v>
       </c>
       <c r="C41" t="n">
-        <v>0.1713130827213308</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="D41" t="n">
-        <v>0.1713130827213308</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="E41" t="n">
-        <v>0.1713130827213308</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1713130827213308</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="G41" t="n">
-        <v>0.1713130827213308</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="H41" t="n">
-        <v>0.1713130827213308</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="I41" t="n">
-        <v>0.1713130827213308</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="J41" t="n">
-        <v>0.1713130827213308</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="K41" t="n">
-        <v>2.2913124813978</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="L41" t="n">
-        <v>2.2913124813978</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="M41" t="n">
-        <v>4.411311880074269</v>
+        <v>17.55565954206922</v>
       </c>
       <c r="N41" t="n">
-        <v>6.531311278750739</v>
+        <v>33.86798166897869</v>
       </c>
       <c r="O41" t="n">
-        <v>8.565654136066541</v>
+        <v>50.18030379588816</v>
       </c>
       <c r="P41" t="n">
-        <v>8.565654136066541</v>
+        <v>65.90837222993726</v>
       </c>
       <c r="Q41" t="n">
-        <v>8.565654136066541</v>
+        <v>51.24875246727849</v>
       </c>
       <c r="R41" t="n">
-        <v>8.565654136066541</v>
+        <v>51.24875246727849</v>
       </c>
       <c r="S41" t="n">
-        <v>6.402610162312364</v>
+        <v>51.24875246727849</v>
       </c>
       <c r="T41" t="n">
-        <v>4.239566188558186</v>
+        <v>51.24875246727849</v>
       </c>
       <c r="U41" t="n">
-        <v>2.076522214804009</v>
+        <v>34.60522412638524</v>
       </c>
       <c r="V41" t="n">
-        <v>2.076522214804009</v>
+        <v>17.96169578549199</v>
       </c>
       <c r="W41" t="n">
-        <v>2.076522214804009</v>
+        <v>17.96169578549199</v>
       </c>
       <c r="X41" t="n">
-        <v>2.076522214804009</v>
+        <v>17.96169578549199</v>
       </c>
       <c r="Y41" t="n">
-        <v>2.076522214804009</v>
+        <v>17.96169578549199</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.1713130827213308</v>
+        <v>15.97778720725751</v>
       </c>
       <c r="C42" t="n">
-        <v>0.1713130827213308</v>
+        <v>15.97778720725751</v>
       </c>
       <c r="D42" t="n">
-        <v>0.1713130827213308</v>
+        <v>15.97778720725751</v>
       </c>
       <c r="E42" t="n">
-        <v>0.1713130827213308</v>
+        <v>15.97778720725751</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1713130827213308</v>
+        <v>15.97778720725751</v>
       </c>
       <c r="G42" t="n">
-        <v>0.1713130827213308</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="H42" t="n">
-        <v>0.1713130827213308</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="I42" t="n">
-        <v>0.1713130827213308</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="J42" t="n">
-        <v>0.1713130827213308</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="K42" t="n">
-        <v>0.1713130827213308</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="L42" t="n">
-        <v>2.2913124813978</v>
+        <v>16.97140584920884</v>
       </c>
       <c r="M42" t="n">
-        <v>4.325655338713602</v>
+        <v>33.28372797611831</v>
       </c>
       <c r="N42" t="n">
-        <v>6.445654737390072</v>
+        <v>49.59605010302779</v>
       </c>
       <c r="O42" t="n">
-        <v>8.565654136066541</v>
+        <v>65.90837222993726</v>
       </c>
       <c r="P42" t="n">
-        <v>8.565654136066541</v>
+        <v>65.90837222993726</v>
       </c>
       <c r="Q42" t="n">
-        <v>6.402610162312364</v>
+        <v>65.90837222993726</v>
       </c>
       <c r="R42" t="n">
-        <v>6.402610162312364</v>
+        <v>65.90837222993726</v>
       </c>
       <c r="S42" t="n">
-        <v>6.402610162312364</v>
+        <v>49.26484388904401</v>
       </c>
       <c r="T42" t="n">
-        <v>6.402610162312364</v>
+        <v>32.62131554815076</v>
       </c>
       <c r="U42" t="n">
-        <v>4.239566188558186</v>
+        <v>32.62131554815076</v>
       </c>
       <c r="V42" t="n">
-        <v>2.076522214804009</v>
+        <v>32.62131554815076</v>
       </c>
       <c r="W42" t="n">
-        <v>0.1713130827213308</v>
+        <v>32.62131554815076</v>
       </c>
       <c r="X42" t="n">
-        <v>0.1713130827213308</v>
+        <v>32.62131554815076</v>
       </c>
       <c r="Y42" t="n">
-        <v>0.1713130827213308</v>
+        <v>15.97778720725751</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.1713130827213308</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="C43" t="n">
-        <v>0.1713130827213308</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="D43" t="n">
-        <v>0.1713130827213308</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="E43" t="n">
-        <v>0.1713130827213308</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1713130827213308</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="G43" t="n">
-        <v>0.1713130827213308</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="H43" t="n">
-        <v>0.1713130827213308</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="I43" t="n">
-        <v>0.1713130827213308</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="J43" t="n">
-        <v>0.1713130827213308</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="K43" t="n">
-        <v>0.1713130827213308</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="L43" t="n">
-        <v>0.1713130827213308</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="M43" t="n">
-        <v>0.1713130827213308</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="N43" t="n">
-        <v>0.1713130827213308</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="O43" t="n">
-        <v>0.1713130827213308</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="P43" t="n">
-        <v>0.1713130827213308</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.1713130827213308</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="R43" t="n">
-        <v>0.1713130827213308</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="S43" t="n">
-        <v>0.1713130827213308</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="T43" t="n">
-        <v>0.1713130827213308</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1713130827213308</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="V43" t="n">
-        <v>0.1713130827213308</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="W43" t="n">
-        <v>0.1713130827213308</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="X43" t="n">
-        <v>0.1713130827213308</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="Y43" t="n">
-        <v>0.1713130827213308</v>
+        <v>1.318167444598745</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2.334357056475508</v>
+        <v>32.62131554815076</v>
       </c>
       <c r="C44" t="n">
-        <v>2.334357056475508</v>
+        <v>17.96169578549199</v>
       </c>
       <c r="D44" t="n">
-        <v>2.334357056475508</v>
+        <v>17.96169578549199</v>
       </c>
       <c r="E44" t="n">
-        <v>2.334357056475508</v>
+        <v>17.96169578549199</v>
       </c>
       <c r="F44" t="n">
-        <v>2.334357056475508</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="G44" t="n">
-        <v>0.1713130827213308</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="H44" t="n">
-        <v>0.1713130827213308</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="I44" t="n">
-        <v>0.1713130827213308</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="J44" t="n">
-        <v>0.1713130827213308</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="K44" t="n">
-        <v>2.2913124813978</v>
+        <v>2.887043131405913</v>
       </c>
       <c r="L44" t="n">
-        <v>2.2913124813978</v>
+        <v>19.19936525831539</v>
       </c>
       <c r="M44" t="n">
-        <v>2.2913124813978</v>
+        <v>19.19936525831539</v>
       </c>
       <c r="N44" t="n">
-        <v>4.411311880074269</v>
+        <v>35.51168738522486</v>
       </c>
       <c r="O44" t="n">
-        <v>6.531311278750739</v>
+        <v>50.18030379588816</v>
       </c>
       <c r="P44" t="n">
-        <v>8.565654136066541</v>
+        <v>65.90837222993726</v>
       </c>
       <c r="Q44" t="n">
-        <v>6.402610162312364</v>
+        <v>65.90837222993726</v>
       </c>
       <c r="R44" t="n">
-        <v>4.239566188558186</v>
+        <v>65.90837222993726</v>
       </c>
       <c r="S44" t="n">
-        <v>4.239566188558186</v>
+        <v>65.90837222993726</v>
       </c>
       <c r="T44" t="n">
-        <v>4.239566188558186</v>
+        <v>65.90837222993726</v>
       </c>
       <c r="U44" t="n">
-        <v>2.334357056475508</v>
+        <v>49.26484388904401</v>
       </c>
       <c r="V44" t="n">
-        <v>2.334357056475508</v>
+        <v>32.62131554815076</v>
       </c>
       <c r="W44" t="n">
-        <v>2.334357056475508</v>
+        <v>32.62131554815076</v>
       </c>
       <c r="X44" t="n">
-        <v>2.334357056475508</v>
+        <v>32.62131554815076</v>
       </c>
       <c r="Y44" t="n">
-        <v>2.334357056475508</v>
+        <v>32.62131554815076</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.1713130827213308</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="C45" t="n">
-        <v>0.1713130827213308</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="D45" t="n">
-        <v>0.1713130827213308</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="E45" t="n">
-        <v>0.1713130827213308</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1713130827213308</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="G45" t="n">
-        <v>0.1713130827213308</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="H45" t="n">
-        <v>0.1713130827213308</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="I45" t="n">
-        <v>0.1713130827213308</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="J45" t="n">
-        <v>0.1713130827213308</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="K45" t="n">
-        <v>0.1713130827213308</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="L45" t="n">
-        <v>2.205655940037133</v>
+        <v>16.97140584920884</v>
       </c>
       <c r="M45" t="n">
-        <v>4.325655338713602</v>
+        <v>33.28372797611831</v>
       </c>
       <c r="N45" t="n">
-        <v>6.445654737390072</v>
+        <v>49.59605010302779</v>
       </c>
       <c r="O45" t="n">
-        <v>8.565654136066541</v>
+        <v>65.90837222993726</v>
       </c>
       <c r="P45" t="n">
-        <v>8.565654136066541</v>
+        <v>65.90837222993726</v>
       </c>
       <c r="Q45" t="n">
-        <v>6.660445003983863</v>
+        <v>65.90837222993726</v>
       </c>
       <c r="R45" t="n">
-        <v>4.497401030229685</v>
+        <v>49.26484388904401</v>
       </c>
       <c r="S45" t="n">
-        <v>4.497401030229685</v>
+        <v>32.62131554815076</v>
       </c>
       <c r="T45" t="n">
-        <v>2.334357056475508</v>
+        <v>32.62131554815076</v>
       </c>
       <c r="U45" t="n">
-        <v>2.334357056475508</v>
+        <v>17.96169578549199</v>
       </c>
       <c r="V45" t="n">
-        <v>2.334357056475508</v>
+        <v>17.96169578549199</v>
       </c>
       <c r="W45" t="n">
-        <v>0.1713130827213308</v>
+        <v>17.96169578549199</v>
       </c>
       <c r="X45" t="n">
-        <v>0.1713130827213308</v>
+        <v>17.96169578549199</v>
       </c>
       <c r="Y45" t="n">
-        <v>0.1713130827213308</v>
+        <v>17.96169578549199</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>8.565654136066541</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="C46" t="n">
-        <v>8.565654136066541</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="D46" t="n">
-        <v>8.565654136066541</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="E46" t="n">
-        <v>8.565654136066541</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="F46" t="n">
-        <v>8.565654136066541</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="G46" t="n">
-        <v>8.565654136066541</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="H46" t="n">
-        <v>8.565654136066541</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="I46" t="n">
-        <v>8.565654136066541</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="J46" t="n">
-        <v>8.565654136066541</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="K46" t="n">
-        <v>8.565654136066541</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="L46" t="n">
-        <v>8.565654136066541</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="M46" t="n">
-        <v>8.565654136066541</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="N46" t="n">
-        <v>8.565654136066541</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="O46" t="n">
-        <v>8.565654136066541</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="P46" t="n">
-        <v>8.565654136066541</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="Q46" t="n">
-        <v>8.565654136066541</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="R46" t="n">
-        <v>8.565654136066541</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="S46" t="n">
-        <v>8.565654136066541</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="T46" t="n">
-        <v>8.565654136066541</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="U46" t="n">
-        <v>8.565654136066541</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="V46" t="n">
-        <v>8.565654136066541</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="W46" t="n">
-        <v>8.565654136066541</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="X46" t="n">
-        <v>8.565654136066541</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="Y46" t="n">
-        <v>8.565654136066541</v>
+        <v>1.318167444598745</v>
       </c>
     </row>
   </sheetData>
@@ -8224,10 +8224,10 @@
         <v>108.5919157831171</v>
       </c>
       <c r="M5" t="n">
-        <v>89.35872216232906</v>
+        <v>90.24443850190505</v>
       </c>
       <c r="N5" t="n">
-        <v>83.98878642167111</v>
+        <v>84.88883457760934</v>
       </c>
       <c r="O5" t="n">
         <v>99.00804712831379</v>
@@ -8300,19 +8300,19 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L6" t="n">
-        <v>38.87181201565983</v>
+        <v>39.45781263504637</v>
       </c>
       <c r="M6" t="n">
-        <v>16.76619772104772</v>
+        <v>17.45003280400823</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>29.09636626239171</v>
+        <v>29.73849888737629</v>
       </c>
       <c r="P6" t="n">
-        <v>51.91261060228356</v>
+        <v>52.42797864524593</v>
       </c>
       <c r="Q6" t="n">
         <v>54.62009481132077</v>
@@ -8467,7 +8467,7 @@
         <v>83.98878642167111</v>
       </c>
       <c r="O8" t="n">
-        <v>99.00804712831382</v>
+        <v>99.00804712831379</v>
       </c>
       <c r="P8" t="n">
         <v>83.66766412458549</v>
@@ -8692,7 +8692,7 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>82.693084352536</v>
+        <v>82.69308435253603</v>
       </c>
       <c r="L11" t="n">
         <v>48.07411698098349</v>
@@ -9166,22 +9166,22 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>81.16647999611175</v>
+        <v>82.693084352536</v>
       </c>
       <c r="L17" t="n">
-        <v>48.32164281926483</v>
+        <v>48.07411698098349</v>
       </c>
       <c r="M17" t="n">
-        <v>6.741420367192597</v>
+        <v>6.707321807773383</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>19.73263345014816</v>
+        <v>19.69981775191468</v>
       </c>
       <c r="P17" t="n">
-        <v>66.05493116322094</v>
+        <v>67.78072631241469</v>
       </c>
       <c r="Q17" t="n">
         <v>55.20189757157522</v>
@@ -9245,7 +9245,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K18" t="n">
-        <v>38.09650305925163</v>
+        <v>39.13339190934374</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9260,7 +9260,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>2.594413238892088</v>
+        <v>3.820587744020429</v>
       </c>
       <c r="Q18" t="n">
         <v>54.62009481132077</v>
@@ -9403,22 +9403,22 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>81.16647999611175</v>
+        <v>82.693084352536</v>
       </c>
       <c r="L20" t="n">
-        <v>46.18022928524795</v>
+        <v>48.07411698098349</v>
       </c>
       <c r="M20" t="n">
-        <v>6.741420367192597</v>
+        <v>6.707321807773383</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>19.73263345014816</v>
+        <v>19.69981775191468</v>
       </c>
       <c r="P20" t="n">
-        <v>68.19634469723781</v>
+        <v>67.78072631241469</v>
       </c>
       <c r="Q20" t="n">
         <v>55.20189757157522</v>
@@ -9482,7 +9482,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K21" t="n">
-        <v>38.09650305925163</v>
+        <v>39.13339190934374</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9497,7 +9497,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>2.594413238892088</v>
+        <v>3.820587744020429</v>
       </c>
       <c r="Q21" t="n">
         <v>54.62009481132077</v>
@@ -9640,22 +9640,22 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>81.16647999611175</v>
+        <v>82.693084352536</v>
       </c>
       <c r="L23" t="n">
-        <v>50.46305635328147</v>
+        <v>64.55121003846781</v>
       </c>
       <c r="M23" t="n">
-        <v>8.882833901209231</v>
+        <v>23.1844148652577</v>
       </c>
       <c r="N23" t="n">
-        <v>2.141413534016885</v>
+        <v>16.47709305748432</v>
       </c>
       <c r="O23" t="n">
-        <v>21.78752522521463</v>
+        <v>35.51116967576326</v>
       </c>
       <c r="P23" t="n">
-        <v>66.05493116322094</v>
+        <v>67.78072631241469</v>
       </c>
       <c r="Q23" t="n">
         <v>55.20189757157522</v>
@@ -9719,7 +9719,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K24" t="n">
-        <v>38.09650305925163</v>
+        <v>39.13339190934374</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9734,7 +9734,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>2.594413238892088</v>
+        <v>3.820587744020429</v>
       </c>
       <c r="Q24" t="n">
         <v>54.62009481132077</v>
@@ -9880,19 +9880,19 @@
         <v>84.27780726850284</v>
       </c>
       <c r="L26" t="n">
-        <v>50.46305635328147</v>
+        <v>64.55121003846781</v>
       </c>
       <c r="M26" t="n">
-        <v>8.882833901209231</v>
+        <v>6.707321807773383</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>16.47709305748432</v>
       </c>
       <c r="O26" t="n">
-        <v>20.81761148684042</v>
+        <v>34.51660200510995</v>
       </c>
       <c r="P26" t="n">
-        <v>66.05493116322094</v>
+        <v>83.66766412458549</v>
       </c>
       <c r="Q26" t="n">
         <v>55.20189757157522</v>
@@ -9956,7 +9956,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K27" t="n">
-        <v>38.09650305925163</v>
+        <v>39.13339190934374</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9971,7 +9971,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>2.594413238892088</v>
+        <v>3.820587744020429</v>
       </c>
       <c r="Q27" t="n">
         <v>54.62009481132077</v>
@@ -10117,19 +10117,19 @@
         <v>84.27780726850284</v>
       </c>
       <c r="L29" t="n">
-        <v>50.46305635328147</v>
+        <v>64.55121003846781</v>
       </c>
       <c r="M29" t="n">
-        <v>8.882833901209231</v>
+        <v>23.1844148652577</v>
       </c>
       <c r="N29" t="n">
-        <v>2.141413534016885</v>
+        <v>16.47709305748432</v>
       </c>
       <c r="O29" t="n">
-        <v>17.67774167508145</v>
+        <v>33.92644675979643</v>
       </c>
       <c r="P29" t="n">
-        <v>67.05338744096302</v>
+        <v>67.78072631241469</v>
       </c>
       <c r="Q29" t="n">
         <v>55.20189757157522</v>
@@ -10193,7 +10193,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K30" t="n">
-        <v>38.09650305925163</v>
+        <v>39.13339190934374</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10208,7 +10208,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>2.594413238892088</v>
+        <v>3.820587744020429</v>
       </c>
       <c r="Q30" t="n">
         <v>54.62009481132077</v>
@@ -10351,22 +10351,22 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>81.16647999611175</v>
+        <v>82.693084352536</v>
       </c>
       <c r="L32" t="n">
-        <v>46.18022928524795</v>
+        <v>64.55121003846781</v>
       </c>
       <c r="M32" t="n">
-        <v>8.709790383308889</v>
+        <v>23.1844148652577</v>
       </c>
       <c r="N32" t="n">
-        <v>2.141413534016863</v>
+        <v>16.47709305748432</v>
       </c>
       <c r="O32" t="n">
-        <v>21.96056874311495</v>
+        <v>35.51116967576326</v>
       </c>
       <c r="P32" t="n">
-        <v>70.33775823125444</v>
+        <v>67.78072631241469</v>
       </c>
       <c r="Q32" t="n">
         <v>55.20189757157522</v>
@@ -10430,7 +10430,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K33" t="n">
-        <v>38.09650305925163</v>
+        <v>39.13339190934374</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10445,7 +10445,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>2.594413238892088</v>
+        <v>3.820587744020429</v>
       </c>
       <c r="Q33" t="n">
         <v>54.62009481132077</v>
@@ -10588,22 +10588,22 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>81.16647999611175</v>
+        <v>82.693084352536</v>
       </c>
       <c r="L35" t="n">
-        <v>46.18022928524795</v>
+        <v>64.5512100384678</v>
       </c>
       <c r="M35" t="n">
-        <v>8.709790383308889</v>
+        <v>23.1844148652577</v>
       </c>
       <c r="N35" t="n">
-        <v>2.141413534016863</v>
+        <v>16.47709305748431</v>
       </c>
       <c r="O35" t="n">
-        <v>21.96056874311495</v>
+        <v>35.51116967576326</v>
       </c>
       <c r="P35" t="n">
-        <v>70.33775823125444</v>
+        <v>67.78072631241469</v>
       </c>
       <c r="Q35" t="n">
         <v>55.20189757157522</v>
@@ -10667,7 +10667,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K36" t="n">
-        <v>38.09650305925163</v>
+        <v>39.13339190934374</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10682,7 +10682,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>2.594413238892088</v>
+        <v>3.820587744020429</v>
       </c>
       <c r="Q36" t="n">
         <v>54.62009481132077</v>
@@ -10825,22 +10825,22 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>81.16647999611175</v>
+        <v>84.27780726850284</v>
       </c>
       <c r="L38" t="n">
-        <v>48.14859930136449</v>
+        <v>64.5512100384678</v>
       </c>
       <c r="M38" t="n">
-        <v>8.88283390120921</v>
+        <v>6.707321807773383</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>16.47709305748431</v>
       </c>
       <c r="O38" t="n">
-        <v>21.96056874311495</v>
+        <v>34.51660200510994</v>
       </c>
       <c r="P38" t="n">
-        <v>70.33775823125444</v>
+        <v>83.66766412458549</v>
       </c>
       <c r="Q38" t="n">
         <v>55.20189757157522</v>
@@ -10904,7 +10904,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K39" t="n">
-        <v>38.09650305925163</v>
+        <v>39.13339190934374</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10919,7 +10919,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>2.594413238892088</v>
+        <v>3.820587744020429</v>
       </c>
       <c r="Q39" t="n">
         <v>54.62009481132077</v>
@@ -11062,22 +11062,22 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>83.30789353012838</v>
+        <v>82.693084352536</v>
       </c>
       <c r="L41" t="n">
-        <v>46.18022928524795</v>
+        <v>48.07411698098349</v>
       </c>
       <c r="M41" t="n">
-        <v>6.741420367192347</v>
+        <v>23.10882897693548</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>16.47709305748431</v>
       </c>
       <c r="O41" t="n">
-        <v>19.73263345014792</v>
+        <v>36.17691080939899</v>
       </c>
       <c r="P41" t="n">
-        <v>66.05493116322094</v>
+        <v>83.66766412458549</v>
       </c>
       <c r="Q41" t="n">
         <v>55.20189757157522</v>
@@ -11141,7 +11141,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K42" t="n">
-        <v>38.09650305925163</v>
+        <v>39.13339190934374</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11156,7 +11156,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>2.594413238892088</v>
+        <v>3.820587744020429</v>
       </c>
       <c r="Q42" t="n">
         <v>54.62009481132077</v>
@@ -11299,22 +11299,22 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>83.30789353012838</v>
+        <v>84.27780726850284</v>
       </c>
       <c r="L44" t="n">
-        <v>46.18022928524795</v>
+        <v>64.5512100384678</v>
       </c>
       <c r="M44" t="n">
-        <v>4.600006833175712</v>
+        <v>6.707321807773383</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>16.47709305748431</v>
       </c>
       <c r="O44" t="n">
-        <v>19.81915520909808</v>
+        <v>34.51660200510994</v>
       </c>
       <c r="P44" t="n">
-        <v>68.10982293828741</v>
+        <v>83.66766412458549</v>
       </c>
       <c r="Q44" t="n">
         <v>55.20189757157522</v>
@@ -11378,7 +11378,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K45" t="n">
-        <v>38.09650305925163</v>
+        <v>39.13339190934374</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11393,7 +11393,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>2.594413238892088</v>
+        <v>3.820587744020429</v>
       </c>
       <c r="Q45" t="n">
         <v>54.62009481132077</v>
@@ -22798,22 +22798,22 @@
         <v>399.146417573369</v>
       </c>
       <c r="G5" t="n">
-        <v>422.180569077725</v>
+        <v>422.1856132717812</v>
       </c>
       <c r="H5" t="n">
-        <v>349.6598249464623</v>
+        <v>349.7114837988406</v>
       </c>
       <c r="I5" t="n">
-        <v>253.2845231898766</v>
+        <v>253.4789894812293</v>
       </c>
       <c r="J5" t="n">
-        <v>101.17202184758</v>
+        <v>101.6001415128599</v>
       </c>
       <c r="K5" t="n">
-        <v>58.29051612840931</v>
+        <v>58.93215652808945</v>
       </c>
       <c r="L5" t="n">
-        <v>13.7627297632223</v>
+        <v>14.55874141675079</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -22822,25 +22822,25 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>0.8498899512916296</v>
       </c>
       <c r="P5" t="n">
-        <v>51.80080109985101</v>
+        <v>52.52616251037944</v>
       </c>
       <c r="Q5" t="n">
-        <v>117.6935628343943</v>
+        <v>118.238279045284</v>
       </c>
       <c r="R5" t="n">
-        <v>209.6584962505987</v>
+        <v>209.9753536054834</v>
       </c>
       <c r="S5" t="n">
-        <v>235.2672937814706</v>
+        <v>235.382238353527</v>
       </c>
       <c r="T5" t="n">
-        <v>219.3436445631938</v>
+        <v>219.365725522675</v>
       </c>
       <c r="U5" t="n">
-        <v>248.788833337017</v>
+        <v>248.7892368725415</v>
       </c>
       <c r="V5" t="n">
         <v>313.3044420010231</v>
@@ -22877,19 +22877,19 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G6" t="n">
-        <v>161.0149653106349</v>
+        <v>161.0176641923887</v>
       </c>
       <c r="H6" t="n">
-        <v>137.7503459159327</v>
+        <v>137.7764114318178</v>
       </c>
       <c r="I6" t="n">
-        <v>116.9507599882392</v>
+        <v>117.0436820135333</v>
       </c>
       <c r="J6" t="n">
-        <v>81.45811026959613</v>
+        <v>81.71309540932356</v>
       </c>
       <c r="K6" t="n">
-        <v>11.04044456262881</v>
+        <v>11.47625477985846</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -22907,19 +22907,19 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>53.82637802552915</v>
+        <v>54.17088791395712</v>
       </c>
       <c r="R6" t="n">
-        <v>154.3921839405207</v>
+        <v>154.5597513532676</v>
       </c>
       <c r="S6" t="n">
-        <v>208.0224770741423</v>
+        <v>208.0726076189984</v>
       </c>
       <c r="T6" t="n">
-        <v>230.0952907293151</v>
+        <v>230.1061691167349</v>
       </c>
       <c r="U6" t="n">
-        <v>249.6495544029776</v>
+        <v>249.6497319609877</v>
       </c>
       <c r="V6" t="n">
         <v>249.2999251801724</v>
@@ -22956,49 +22956,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G7" t="n">
-        <v>169.2343807020206</v>
+        <v>169.2366433538217</v>
       </c>
       <c r="H7" t="n">
-        <v>167.5776180378764</v>
+        <v>167.5977350693439</v>
       </c>
       <c r="I7" t="n">
-        <v>167.7355108777182</v>
+        <v>167.8035549882441</v>
       </c>
       <c r="J7" t="n">
-        <v>132.2802453397308</v>
+        <v>132.4402148220645</v>
       </c>
       <c r="K7" t="n">
-        <v>87.46423987719798</v>
+        <v>87.72711887735547</v>
       </c>
       <c r="L7" t="n">
-        <v>61.01644271081538</v>
+        <v>61.35283732494491</v>
       </c>
       <c r="M7" t="n">
-        <v>57.64716518774021</v>
+        <v>58.00184614233453</v>
       </c>
       <c r="N7" t="n">
-        <v>45.30505538511906</v>
+        <v>45.65130281936403</v>
       </c>
       <c r="O7" t="n">
-        <v>70.7260729557852</v>
+        <v>71.04588850308164</v>
       </c>
       <c r="P7" t="n">
-        <v>89.84907843621556</v>
+        <v>90.12273588677074</v>
       </c>
       <c r="Q7" t="n">
-        <v>151.6385858692978</v>
+        <v>151.8280521032924</v>
       </c>
       <c r="R7" t="n">
-        <v>221.05342233419</v>
+        <v>221.1551593869896</v>
       </c>
       <c r="S7" t="n">
-        <v>243.6919922925021</v>
+        <v>243.7314241425257</v>
       </c>
       <c r="T7" t="n">
-        <v>218.0866353446397</v>
+        <v>218.0963030386987</v>
       </c>
       <c r="U7" t="n">
-        <v>291.219579948833</v>
+        <v>291.219703366204</v>
       </c>
       <c r="V7" t="n">
         <v>237.3615500762718</v>
@@ -23302,7 +23302,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>66.8628898365198</v>
+        <v>66.86288983651983</v>
       </c>
       <c r="R11" t="n">
         <v>180.0906730958467</v>
@@ -23442,10 +23442,10 @@
         <v>117.3525521967958</v>
       </c>
       <c r="K13" t="n">
-        <v>62.93345443721984</v>
+        <v>62.93345443721985</v>
       </c>
       <c r="L13" t="n">
-        <v>29.62548300147245</v>
+        <v>29.62548300147246</v>
       </c>
       <c r="M13" t="n">
         <v>24.54979951156312</v>
@@ -23746,16 +23746,16 @@
         <v>399.146417573369</v>
       </c>
       <c r="G17" t="n">
-        <v>419.5564508797277</v>
+        <v>421.7098656665098</v>
       </c>
       <c r="H17" t="n">
-        <v>342.5749122724558</v>
+        <v>344.8392336363538</v>
       </c>
       <c r="I17" t="n">
-        <v>232.5336380977542</v>
+        <v>235.1377299289993</v>
       </c>
       <c r="J17" t="n">
-        <v>58.31690983230905</v>
+        <v>61.2216581999468</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23776,19 +23776,19 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>65.56688955197782</v>
+        <v>66.8628898365198</v>
       </c>
       <c r="R17" t="n">
-        <v>179.3367994018382</v>
+        <v>180.0906730958467</v>
       </c>
       <c r="S17" t="n">
-        <v>224.2676612510166</v>
+        <v>224.5411397984024</v>
       </c>
       <c r="T17" t="n">
-        <v>217.2306048966195</v>
+        <v>217.2831403805989</v>
       </c>
       <c r="U17" t="n">
-        <v>248.7502169638986</v>
+        <v>248.7511770641198</v>
       </c>
       <c r="V17" t="n">
         <v>313.3044420010231</v>
@@ -23825,16 +23825,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G18" t="n">
-        <v>160.7566955463175</v>
+        <v>160.7631167826437</v>
       </c>
       <c r="H18" t="n">
-        <v>135.2560037184457</v>
+        <v>135.3180193429644</v>
       </c>
       <c r="I18" t="n">
-        <v>105.9171637792574</v>
+        <v>108.279659353452</v>
       </c>
       <c r="J18" t="n">
-        <v>54.91586781820097</v>
+        <v>57.66394736845585</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23855,19 +23855,19 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>20.85846916283117</v>
+        <v>21.67813434720469</v>
       </c>
       <c r="R18" t="n">
-        <v>136.2153897763378</v>
+        <v>138.7554832289223</v>
       </c>
       <c r="S18" t="n">
-        <v>201.339072437396</v>
+        <v>203.3445011265852</v>
       </c>
       <c r="T18" t="n">
-        <v>229.0542823371759</v>
+        <v>229.0801644257012</v>
       </c>
       <c r="U18" t="n">
-        <v>249.6325629711146</v>
+        <v>249.6329854208729</v>
       </c>
       <c r="V18" t="n">
         <v>249.2999251801724</v>
@@ -23904,49 +23904,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G19" t="n">
-        <v>169.0178560074606</v>
+        <v>169.0232393562931</v>
       </c>
       <c r="H19" t="n">
-        <v>165.652516662606</v>
+        <v>165.7003795276809</v>
       </c>
       <c r="I19" t="n">
-        <v>161.2240227904026</v>
+        <v>161.3859147716582</v>
       </c>
       <c r="J19" t="n">
-        <v>116.9719494343337</v>
+        <v>117.3525521967958</v>
       </c>
       <c r="K19" t="n">
-        <v>62.30800718194584</v>
+        <v>62.93345443721984</v>
       </c>
       <c r="L19" t="n">
-        <v>28.82512584867504</v>
+        <v>29.62548300147245</v>
       </c>
       <c r="M19" t="n">
-        <v>23.70593511229166</v>
+        <v>24.54979951156312</v>
       </c>
       <c r="N19" t="n">
-        <v>12.17087189848527</v>
+        <v>12.99467108847176</v>
       </c>
       <c r="O19" t="n">
-        <v>40.12129158287594</v>
+        <v>40.88220347059112</v>
       </c>
       <c r="P19" t="n">
-        <v>63.66140083233181</v>
+        <v>64.31249240386273</v>
       </c>
       <c r="Q19" t="n">
-        <v>133.5075953093629</v>
+        <v>133.9583773647877</v>
       </c>
       <c r="R19" t="n">
-        <v>211.3176847042434</v>
+        <v>211.5597396435694</v>
       </c>
       <c r="S19" t="n">
-        <v>239.9185573882143</v>
+        <v>240.0123744765054</v>
       </c>
       <c r="T19" t="n">
-        <v>217.161484376974</v>
+        <v>217.1844859583495</v>
       </c>
       <c r="U19" t="n">
-        <v>291.2077695109479</v>
+        <v>291.208063148157</v>
       </c>
       <c r="V19" t="n">
         <v>237.3615500762718</v>
@@ -23980,19 +23980,19 @@
         <v>359.9585549362873</v>
       </c>
       <c r="F20" t="n">
-        <v>397.260260532607</v>
+        <v>399.146417573369</v>
       </c>
       <c r="G20" t="n">
-        <v>421.6978644137446</v>
+        <v>421.7098656665098</v>
       </c>
       <c r="H20" t="n">
-        <v>344.7163258064727</v>
+        <v>344.8392336363538</v>
       </c>
       <c r="I20" t="n">
-        <v>234.6750516317711</v>
+        <v>235.1377299289993</v>
       </c>
       <c r="J20" t="n">
-        <v>60.20306687307112</v>
+        <v>61.2216581999468</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24013,28 +24013,28 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>63.42547601796094</v>
+        <v>66.8628898365198</v>
       </c>
       <c r="R20" t="n">
-        <v>179.3367994018382</v>
+        <v>180.0906730958467</v>
       </c>
       <c r="S20" t="n">
-        <v>224.2676612510166</v>
+        <v>224.5411397984024</v>
       </c>
       <c r="T20" t="n">
-        <v>217.2306048966195</v>
+        <v>217.2831403805989</v>
       </c>
       <c r="U20" t="n">
-        <v>248.7502169638986</v>
+        <v>248.7511770641198</v>
       </c>
       <c r="V20" t="n">
         <v>313.3044420010231</v>
       </c>
       <c r="W20" t="n">
-        <v>323.2503119452765</v>
+        <v>325.3917254792934</v>
       </c>
       <c r="X20" t="n">
-        <v>346.675465769496</v>
+        <v>348.8168793035129</v>
       </c>
       <c r="Y20" t="n">
         <v>377.9289763951821</v>
@@ -24047,31 +24047,31 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>186.1266003402724</v>
+        <v>188.0127573810344</v>
       </c>
       <c r="C21" t="n">
-        <v>201.7010140812225</v>
+        <v>203.8424276152394</v>
       </c>
       <c r="D21" t="n">
         <v>172.0989423795122</v>
       </c>
       <c r="E21" t="n">
-        <v>185.3191317635859</v>
+        <v>187.4605452976028</v>
       </c>
       <c r="F21" t="n">
         <v>173.9843481253239</v>
       </c>
       <c r="G21" t="n">
-        <v>160.7566955463175</v>
+        <v>160.7631167826437</v>
       </c>
       <c r="H21" t="n">
-        <v>135.2560037184457</v>
+        <v>135.3180193429644</v>
       </c>
       <c r="I21" t="n">
-        <v>108.0585773132742</v>
+        <v>108.279659353452</v>
       </c>
       <c r="J21" t="n">
-        <v>54.91586781820097</v>
+        <v>57.66394736845585</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24092,19 +24092,19 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>20.85846916283117</v>
+        <v>21.67813434720469</v>
       </c>
       <c r="R21" t="n">
-        <v>138.3568033103546</v>
+        <v>138.7554832289223</v>
       </c>
       <c r="S21" t="n">
-        <v>203.2252294781581</v>
+        <v>203.3445011265852</v>
       </c>
       <c r="T21" t="n">
-        <v>229.0542823371759</v>
+        <v>229.0801644257012</v>
       </c>
       <c r="U21" t="n">
-        <v>249.6325629711146</v>
+        <v>249.6329854208729</v>
       </c>
       <c r="V21" t="n">
         <v>249.2999251801724</v>
@@ -24141,49 +24141,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G22" t="n">
-        <v>169.0178560074606</v>
+        <v>169.0232393562931</v>
       </c>
       <c r="H22" t="n">
-        <v>165.652516662606</v>
+        <v>165.7003795276809</v>
       </c>
       <c r="I22" t="n">
-        <v>161.2240227904026</v>
+        <v>161.3859147716582</v>
       </c>
       <c r="J22" t="n">
-        <v>116.9719494343337</v>
+        <v>117.3525521967958</v>
       </c>
       <c r="K22" t="n">
-        <v>62.30800718194584</v>
+        <v>62.93345443721984</v>
       </c>
       <c r="L22" t="n">
-        <v>28.82512584867504</v>
+        <v>29.62548300147245</v>
       </c>
       <c r="M22" t="n">
-        <v>23.70593511229166</v>
+        <v>24.54979951156312</v>
       </c>
       <c r="N22" t="n">
-        <v>12.17087189848527</v>
+        <v>12.99467108847176</v>
       </c>
       <c r="O22" t="n">
-        <v>40.12129158287594</v>
+        <v>40.88220347059112</v>
       </c>
       <c r="P22" t="n">
-        <v>63.66140083233181</v>
+        <v>64.31249240386273</v>
       </c>
       <c r="Q22" t="n">
-        <v>133.5075953093629</v>
+        <v>133.9583773647877</v>
       </c>
       <c r="R22" t="n">
-        <v>211.3176847042434</v>
+        <v>211.5597396435694</v>
       </c>
       <c r="S22" t="n">
-        <v>239.9185573882143</v>
+        <v>240.0123744765054</v>
       </c>
       <c r="T22" t="n">
-        <v>217.161484376974</v>
+        <v>217.1844859583495</v>
       </c>
       <c r="U22" t="n">
-        <v>291.2077695109479</v>
+        <v>291.208063148157</v>
       </c>
       <c r="V22" t="n">
         <v>237.3615500762718</v>
@@ -24208,7 +24208,7 @@
         <v>364.5563275970632</v>
       </c>
       <c r="C23" t="n">
-        <v>329.314292406175</v>
+        <v>333.5971194742085</v>
       </c>
       <c r="D23" t="n">
         <v>319.1317556432476</v>
@@ -24220,16 +24220,16 @@
         <v>399.146417573369</v>
       </c>
       <c r="G23" t="n">
-        <v>421.6978644137446</v>
+        <v>405.2327726090255</v>
       </c>
       <c r="H23" t="n">
-        <v>344.7163258064727</v>
+        <v>330.3262100713216</v>
       </c>
       <c r="I23" t="n">
-        <v>234.6750516317711</v>
+        <v>235.1377299289993</v>
       </c>
       <c r="J23" t="n">
-        <v>60.20306687307112</v>
+        <v>61.2216581999468</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24250,19 +24250,19 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>61.2840624839443</v>
+        <v>50.38579677903548</v>
       </c>
       <c r="R23" t="n">
-        <v>179.3367994018382</v>
+        <v>163.6135800383623</v>
       </c>
       <c r="S23" t="n">
-        <v>224.2676612510166</v>
+        <v>224.5411397984024</v>
       </c>
       <c r="T23" t="n">
-        <v>217.2306048966195</v>
+        <v>217.2831403805989</v>
       </c>
       <c r="U23" t="n">
-        <v>248.7502169638986</v>
+        <v>248.7511770641198</v>
       </c>
       <c r="V23" t="n">
         <v>313.3044420010231</v>
@@ -24271,10 +24271,10 @@
         <v>325.3917254792934</v>
       </c>
       <c r="X23" t="n">
-        <v>344.5340522354794</v>
+        <v>348.8168793035129</v>
       </c>
       <c r="Y23" t="n">
-        <v>374.1566623136582</v>
+        <v>377.9289763951821</v>
       </c>
     </row>
     <row r="24">
@@ -24299,16 +24299,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G24" t="n">
-        <v>160.7566955463175</v>
+        <v>160.7631167826437</v>
       </c>
       <c r="H24" t="n">
-        <v>135.2560037184457</v>
+        <v>135.3180193429644</v>
       </c>
       <c r="I24" t="n">
-        <v>108.0585773132742</v>
+        <v>108.279659353452</v>
       </c>
       <c r="J24" t="n">
-        <v>57.05728135221786</v>
+        <v>57.66394736845585</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24329,25 +24329,25 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>17.08615508130725</v>
+        <v>7.165110782172514</v>
       </c>
       <c r="R24" t="n">
-        <v>134.0739762423211</v>
+        <v>138.7554832289223</v>
       </c>
       <c r="S24" t="n">
-        <v>203.2252294781581</v>
+        <v>186.8674080691008</v>
       </c>
       <c r="T24" t="n">
-        <v>229.0542823371759</v>
+        <v>229.0801644257012</v>
       </c>
       <c r="U24" t="n">
-        <v>245.3497359030811</v>
+        <v>249.6329854208729</v>
       </c>
       <c r="V24" t="n">
-        <v>249.2999251801724</v>
+        <v>232.8228321226881</v>
       </c>
       <c r="W24" t="n">
-        <v>278.9664296948976</v>
+        <v>266.7721637054468</v>
       </c>
       <c r="X24" t="n">
         <v>230.033063710963</v>
@@ -24378,49 +24378,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G25" t="n">
-        <v>169.0178560074606</v>
+        <v>169.0232393562931</v>
       </c>
       <c r="H25" t="n">
-        <v>165.652516662606</v>
+        <v>165.7003795276809</v>
       </c>
       <c r="I25" t="n">
-        <v>161.2240227904026</v>
+        <v>161.3859147716582</v>
       </c>
       <c r="J25" t="n">
-        <v>116.9719494343337</v>
+        <v>117.3525521967958</v>
       </c>
       <c r="K25" t="n">
-        <v>62.30800718194584</v>
+        <v>62.93345443721984</v>
       </c>
       <c r="L25" t="n">
-        <v>28.82512584867504</v>
+        <v>29.62548300147245</v>
       </c>
       <c r="M25" t="n">
-        <v>23.70593511229166</v>
+        <v>24.54979951156312</v>
       </c>
       <c r="N25" t="n">
-        <v>12.17087189848527</v>
+        <v>12.99467108847176</v>
       </c>
       <c r="O25" t="n">
-        <v>40.12129158287594</v>
+        <v>40.88220347059112</v>
       </c>
       <c r="P25" t="n">
-        <v>63.66140083233181</v>
+        <v>64.31249240386273</v>
       </c>
       <c r="Q25" t="n">
-        <v>133.5075953093629</v>
+        <v>133.9583773647877</v>
       </c>
       <c r="R25" t="n">
-        <v>211.3176847042434</v>
+        <v>211.5597396435694</v>
       </c>
       <c r="S25" t="n">
-        <v>239.9185573882143</v>
+        <v>240.0123744765054</v>
       </c>
       <c r="T25" t="n">
-        <v>217.161484376974</v>
+        <v>217.1844859583495</v>
       </c>
       <c r="U25" t="n">
-        <v>291.2077695109479</v>
+        <v>291.208063148157</v>
       </c>
       <c r="V25" t="n">
         <v>237.3615500762718</v>
@@ -24448,7 +24448,7 @@
         <v>333.5971194742085</v>
       </c>
       <c r="D26" t="n">
-        <v>319.1317556432476</v>
+        <v>302.6546625857633</v>
       </c>
       <c r="E26" t="n">
         <v>359.9585549362873</v>
@@ -24457,16 +24457,16 @@
         <v>399.146417573369</v>
       </c>
       <c r="G26" t="n">
-        <v>421.6978644137446</v>
+        <v>421.7098656665098</v>
       </c>
       <c r="H26" t="n">
-        <v>344.7163258064727</v>
+        <v>344.8392336363538</v>
       </c>
       <c r="I26" t="n">
-        <v>234.6750516317711</v>
+        <v>235.1377299289993</v>
       </c>
       <c r="J26" t="n">
-        <v>55.9202398050376</v>
+        <v>61.2216581999468</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24487,28 +24487,28 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>61.2840624839443</v>
+        <v>66.8628898365198</v>
       </c>
       <c r="R26" t="n">
-        <v>179.3367994018382</v>
+        <v>180.0906730958467</v>
       </c>
       <c r="S26" t="n">
-        <v>224.2676612510166</v>
+        <v>224.5411397984024</v>
       </c>
       <c r="T26" t="n">
-        <v>217.2306048966195</v>
+        <v>217.2831403805989</v>
       </c>
       <c r="U26" t="n">
-        <v>244.9779028823747</v>
+        <v>248.7511770641198</v>
       </c>
       <c r="V26" t="n">
-        <v>309.0216149329896</v>
+        <v>296.8273489435388</v>
       </c>
       <c r="W26" t="n">
-        <v>325.3917254792934</v>
+        <v>308.9146324218091</v>
       </c>
       <c r="X26" t="n">
-        <v>348.8168793035129</v>
+        <v>334.3038557384807</v>
       </c>
       <c r="Y26" t="n">
         <v>377.9289763951821</v>
@@ -24536,16 +24536,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G27" t="n">
-        <v>156.9843814647936</v>
+        <v>160.7631167826437</v>
       </c>
       <c r="H27" t="n">
-        <v>130.9731766504122</v>
+        <v>135.3180193429644</v>
       </c>
       <c r="I27" t="n">
-        <v>108.0585773132742</v>
+        <v>108.279659353452</v>
       </c>
       <c r="J27" t="n">
-        <v>57.05728135221786</v>
+        <v>57.66394736845585</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24566,31 +24566,31 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>20.85846916283117</v>
+        <v>21.67813434720469</v>
       </c>
       <c r="R27" t="n">
-        <v>138.3568033103546</v>
+        <v>124.2424596638901</v>
       </c>
       <c r="S27" t="n">
-        <v>203.2252294781581</v>
+        <v>186.8674080691008</v>
       </c>
       <c r="T27" t="n">
-        <v>229.0542823371759</v>
+        <v>229.0801644257012</v>
       </c>
       <c r="U27" t="n">
-        <v>249.6325629711146</v>
+        <v>233.1558923633886</v>
       </c>
       <c r="V27" t="n">
         <v>249.2999251801724</v>
       </c>
       <c r="W27" t="n">
-        <v>278.9664296948976</v>
+        <v>266.7721637054468</v>
       </c>
       <c r="X27" t="n">
         <v>230.033063710963</v>
       </c>
       <c r="Y27" t="n">
-        <v>238.6134393455598</v>
+        <v>242.8962664135933</v>
       </c>
     </row>
     <row r="28">
@@ -24615,49 +24615,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G28" t="n">
-        <v>169.0178560074606</v>
+        <v>169.0232393562931</v>
       </c>
       <c r="H28" t="n">
-        <v>165.652516662606</v>
+        <v>165.7003795276809</v>
       </c>
       <c r="I28" t="n">
-        <v>161.2240227904026</v>
+        <v>161.3859147716582</v>
       </c>
       <c r="J28" t="n">
-        <v>116.9719494343337</v>
+        <v>117.3525521967958</v>
       </c>
       <c r="K28" t="n">
-        <v>62.30800718194584</v>
+        <v>62.93345443721984</v>
       </c>
       <c r="L28" t="n">
-        <v>28.82512584867504</v>
+        <v>29.62548300147245</v>
       </c>
       <c r="M28" t="n">
-        <v>23.70593511229166</v>
+        <v>24.54979951156312</v>
       </c>
       <c r="N28" t="n">
-        <v>12.17087189848527</v>
+        <v>12.99467108847176</v>
       </c>
       <c r="O28" t="n">
-        <v>40.12129158287594</v>
+        <v>40.88220347059112</v>
       </c>
       <c r="P28" t="n">
-        <v>63.66140083233181</v>
+        <v>64.31249240386273</v>
       </c>
       <c r="Q28" t="n">
-        <v>133.5075953093629</v>
+        <v>133.9583773647877</v>
       </c>
       <c r="R28" t="n">
-        <v>211.3176847042434</v>
+        <v>211.5597396435694</v>
       </c>
       <c r="S28" t="n">
-        <v>239.9185573882143</v>
+        <v>240.0123744765054</v>
       </c>
       <c r="T28" t="n">
-        <v>217.161484376974</v>
+        <v>217.1844859583495</v>
       </c>
       <c r="U28" t="n">
-        <v>291.2077695109479</v>
+        <v>291.208063148157</v>
       </c>
       <c r="V28" t="n">
         <v>237.3615500762718</v>
@@ -24679,10 +24679,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>360.2735005290297</v>
+        <v>350.043304032031</v>
       </c>
       <c r="C29" t="n">
-        <v>333.5971194742085</v>
+        <v>317.1200264167242</v>
       </c>
       <c r="D29" t="n">
         <v>319.1317556432476</v>
@@ -24691,19 +24691,19 @@
         <v>359.9585549362873</v>
       </c>
       <c r="F29" t="n">
-        <v>399.146417573369</v>
+        <v>382.6693245158847</v>
       </c>
       <c r="G29" t="n">
-        <v>421.6978644137446</v>
+        <v>421.7098656665098</v>
       </c>
       <c r="H29" t="n">
-        <v>344.7163258064727</v>
+        <v>328.3621405788695</v>
       </c>
       <c r="I29" t="n">
-        <v>230.3922245637376</v>
+        <v>235.1377299289993</v>
       </c>
       <c r="J29" t="n">
-        <v>60.20306687307112</v>
+        <v>61.2216581999468</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24724,19 +24724,19 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>61.7945754704539</v>
+        <v>66.8628898365198</v>
       </c>
       <c r="R29" t="n">
-        <v>179.3367994018382</v>
+        <v>180.0906730958467</v>
       </c>
       <c r="S29" t="n">
-        <v>224.2676612510166</v>
+        <v>224.5411397984024</v>
       </c>
       <c r="T29" t="n">
-        <v>217.2306048966195</v>
+        <v>217.2831403805989</v>
       </c>
       <c r="U29" t="n">
-        <v>248.7502169638986</v>
+        <v>248.7511770641198</v>
       </c>
       <c r="V29" t="n">
         <v>313.3044420010231</v>
@@ -24748,7 +24748,7 @@
         <v>348.8168793035129</v>
       </c>
       <c r="Y29" t="n">
-        <v>373.6461493271486</v>
+        <v>377.9289763951821</v>
       </c>
     </row>
     <row r="30">
@@ -24767,22 +24767,22 @@
         <v>172.0989423795122</v>
       </c>
       <c r="E30" t="n">
-        <v>183.1777182295693</v>
+        <v>187.4605452976028</v>
       </c>
       <c r="F30" t="n">
-        <v>169.7015210572904</v>
+        <v>173.9843481253239</v>
       </c>
       <c r="G30" t="n">
-        <v>160.7566955463175</v>
+        <v>160.7631167826437</v>
       </c>
       <c r="H30" t="n">
-        <v>135.2560037184457</v>
+        <v>135.3180193429644</v>
       </c>
       <c r="I30" t="n">
-        <v>108.0585773132742</v>
+        <v>108.279659353452</v>
       </c>
       <c r="J30" t="n">
-        <v>57.05728135221786</v>
+        <v>57.66394736845585</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24803,25 +24803,25 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>20.85846916283117</v>
+        <v>21.67813434720469</v>
       </c>
       <c r="R30" t="n">
-        <v>138.3568033103546</v>
+        <v>138.7554832289223</v>
       </c>
       <c r="S30" t="n">
-        <v>203.2252294781581</v>
+        <v>203.3445011265852</v>
       </c>
       <c r="T30" t="n">
-        <v>229.0542823371759</v>
+        <v>212.6030713682169</v>
       </c>
       <c r="U30" t="n">
-        <v>245.8602488895907</v>
+        <v>233.1558923633886</v>
       </c>
       <c r="V30" t="n">
-        <v>249.2999251801724</v>
+        <v>232.8228321226881</v>
       </c>
       <c r="W30" t="n">
-        <v>278.9664296948976</v>
+        <v>268.7362331978989</v>
       </c>
       <c r="X30" t="n">
         <v>230.033063710963</v>
@@ -24852,49 +24852,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G31" t="n">
-        <v>169.0178560074606</v>
+        <v>169.0232393562931</v>
       </c>
       <c r="H31" t="n">
-        <v>165.652516662606</v>
+        <v>165.7003795276809</v>
       </c>
       <c r="I31" t="n">
-        <v>161.2240227904026</v>
+        <v>161.3859147716582</v>
       </c>
       <c r="J31" t="n">
-        <v>116.9719494343337</v>
+        <v>117.3525521967958</v>
       </c>
       <c r="K31" t="n">
-        <v>62.30800718194584</v>
+        <v>62.93345443721984</v>
       </c>
       <c r="L31" t="n">
-        <v>28.82512584867504</v>
+        <v>29.62548300147245</v>
       </c>
       <c r="M31" t="n">
-        <v>23.70593511229166</v>
+        <v>24.54979951156312</v>
       </c>
       <c r="N31" t="n">
-        <v>12.17087189848527</v>
+        <v>12.99467108847176</v>
       </c>
       <c r="O31" t="n">
-        <v>40.12129158287594</v>
+        <v>40.88220347059112</v>
       </c>
       <c r="P31" t="n">
-        <v>63.66140083233181</v>
+        <v>64.31249240386273</v>
       </c>
       <c r="Q31" t="n">
-        <v>133.5075953093629</v>
+        <v>133.9583773647877</v>
       </c>
       <c r="R31" t="n">
-        <v>211.3176847042434</v>
+        <v>211.5597396435694</v>
       </c>
       <c r="S31" t="n">
-        <v>239.9185573882143</v>
+        <v>240.0123744765054</v>
       </c>
       <c r="T31" t="n">
-        <v>217.161484376974</v>
+        <v>217.1844859583495</v>
       </c>
       <c r="U31" t="n">
-        <v>291.2077695109479</v>
+        <v>291.208063148157</v>
       </c>
       <c r="V31" t="n">
         <v>237.3615500762718</v>
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>364.5563275970632</v>
+        <v>350.043304032031</v>
       </c>
       <c r="C32" t="n">
         <v>333.5971194742085</v>
@@ -24928,19 +24928,19 @@
         <v>359.9585549362873</v>
       </c>
       <c r="F32" t="n">
-        <v>394.8635905053355</v>
+        <v>399.146417573369</v>
       </c>
       <c r="G32" t="n">
-        <v>417.9255503322207</v>
+        <v>421.7098656665098</v>
       </c>
       <c r="H32" t="n">
-        <v>344.7163258064727</v>
+        <v>344.8392336363538</v>
       </c>
       <c r="I32" t="n">
-        <v>234.6750516317711</v>
+        <v>235.1377299289993</v>
       </c>
       <c r="J32" t="n">
-        <v>60.20306687307112</v>
+        <v>61.2216581999468</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24961,25 +24961,25 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>65.56688955197782</v>
+        <v>66.8628898365198</v>
       </c>
       <c r="R32" t="n">
-        <v>179.3367994018382</v>
+        <v>163.6135800383623</v>
       </c>
       <c r="S32" t="n">
-        <v>224.2676612510166</v>
+        <v>208.064046740918</v>
       </c>
       <c r="T32" t="n">
-        <v>217.2306048966195</v>
+        <v>217.2831403805989</v>
       </c>
       <c r="U32" t="n">
-        <v>244.467389895865</v>
+        <v>248.7511770641198</v>
       </c>
       <c r="V32" t="n">
-        <v>309.0216149329896</v>
+        <v>313.3044420010231</v>
       </c>
       <c r="W32" t="n">
-        <v>325.3917254792934</v>
+        <v>308.9146324218091</v>
       </c>
       <c r="X32" t="n">
         <v>348.8168793035129</v>
@@ -24995,31 +24995,31 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>188.0127573810344</v>
+        <v>171.5356643235501</v>
       </c>
       <c r="C33" t="n">
-        <v>203.8424276152394</v>
+        <v>187.3653345577551</v>
       </c>
       <c r="D33" t="n">
-        <v>172.0989423795122</v>
+        <v>155.6218493220279</v>
       </c>
       <c r="E33" t="n">
-        <v>183.1777182295693</v>
+        <v>187.4605452976028</v>
       </c>
       <c r="F33" t="n">
         <v>173.9843481253239</v>
       </c>
       <c r="G33" t="n">
-        <v>160.7566955463175</v>
+        <v>160.7631167826437</v>
       </c>
       <c r="H33" t="n">
-        <v>135.2560037184457</v>
+        <v>135.3180193429644</v>
       </c>
       <c r="I33" t="n">
-        <v>108.0585773132742</v>
+        <v>108.279659353452</v>
       </c>
       <c r="J33" t="n">
-        <v>52.77445428418434</v>
+        <v>57.66394736845585</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25040,25 +25040,25 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>17.08615508130725</v>
+        <v>21.67813434720469</v>
       </c>
       <c r="R33" t="n">
-        <v>138.3568033103546</v>
+        <v>138.7554832289223</v>
       </c>
       <c r="S33" t="n">
-        <v>203.2252294781581</v>
+        <v>203.3445011265852</v>
       </c>
       <c r="T33" t="n">
-        <v>229.0542823371759</v>
+        <v>229.0801644257012</v>
       </c>
       <c r="U33" t="n">
-        <v>249.6325629711146</v>
+        <v>249.6329854208729</v>
       </c>
       <c r="V33" t="n">
-        <v>249.2999251801724</v>
+        <v>234.7869016151402</v>
       </c>
       <c r="W33" t="n">
-        <v>278.9664296948976</v>
+        <v>283.2492567629311</v>
       </c>
       <c r="X33" t="n">
         <v>230.033063710963</v>
@@ -25089,49 +25089,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G34" t="n">
-        <v>169.0178560074606</v>
+        <v>169.0232393562931</v>
       </c>
       <c r="H34" t="n">
-        <v>165.652516662606</v>
+        <v>165.7003795276809</v>
       </c>
       <c r="I34" t="n">
-        <v>161.2240227904026</v>
+        <v>161.3859147716582</v>
       </c>
       <c r="J34" t="n">
-        <v>116.9719494343337</v>
+        <v>117.3525521967958</v>
       </c>
       <c r="K34" t="n">
-        <v>62.30800718194584</v>
+        <v>62.93345443721984</v>
       </c>
       <c r="L34" t="n">
-        <v>28.82512584867504</v>
+        <v>29.62548300147245</v>
       </c>
       <c r="M34" t="n">
-        <v>23.70593511229166</v>
+        <v>24.54979951156312</v>
       </c>
       <c r="N34" t="n">
-        <v>12.17087189848527</v>
+        <v>12.99467108847176</v>
       </c>
       <c r="O34" t="n">
-        <v>40.12129158287594</v>
+        <v>40.88220347059112</v>
       </c>
       <c r="P34" t="n">
-        <v>63.66140083233181</v>
+        <v>64.31249240386273</v>
       </c>
       <c r="Q34" t="n">
-        <v>133.5075953093629</v>
+        <v>133.9583773647877</v>
       </c>
       <c r="R34" t="n">
-        <v>211.3176847042434</v>
+        <v>211.5597396435694</v>
       </c>
       <c r="S34" t="n">
-        <v>239.9185573882143</v>
+        <v>240.0123744765054</v>
       </c>
       <c r="T34" t="n">
-        <v>217.161484376974</v>
+        <v>217.1844859583495</v>
       </c>
       <c r="U34" t="n">
-        <v>291.2077695109479</v>
+        <v>291.208063148157</v>
       </c>
       <c r="V34" t="n">
         <v>237.3615500762718</v>
@@ -25165,19 +25165,19 @@
         <v>359.9585549362873</v>
       </c>
       <c r="F35" t="n">
-        <v>395.3741034918451</v>
+        <v>399.146417573369</v>
       </c>
       <c r="G35" t="n">
-        <v>417.4150373457111</v>
+        <v>421.7098656665098</v>
       </c>
       <c r="H35" t="n">
-        <v>344.7163258064727</v>
+        <v>344.8392336363538</v>
       </c>
       <c r="I35" t="n">
-        <v>234.6750516317711</v>
+        <v>235.1377299289993</v>
       </c>
       <c r="J35" t="n">
-        <v>60.20306687307112</v>
+        <v>61.2216581999468</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25198,28 +25198,28 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>65.56688955197782</v>
+        <v>50.38579677903549</v>
       </c>
       <c r="R35" t="n">
-        <v>179.3367994018382</v>
+        <v>180.0906730958467</v>
       </c>
       <c r="S35" t="n">
-        <v>224.2676612510166</v>
+        <v>224.5411397984024</v>
       </c>
       <c r="T35" t="n">
-        <v>217.2306048966195</v>
+        <v>217.2831403805989</v>
       </c>
       <c r="U35" t="n">
-        <v>244.467389895865</v>
+        <v>248.7511770641198</v>
       </c>
       <c r="V35" t="n">
-        <v>309.0216149329896</v>
+        <v>296.8273489435388</v>
       </c>
       <c r="W35" t="n">
-        <v>325.3917254792934</v>
+        <v>308.9146324218091</v>
       </c>
       <c r="X35" t="n">
-        <v>348.8168793035129</v>
+        <v>334.3038557384807</v>
       </c>
       <c r="Y35" t="n">
         <v>377.9289763951821</v>
@@ -25235,7 +25235,7 @@
         <v>188.0127573810344</v>
       </c>
       <c r="C36" t="n">
-        <v>199.5596005472059</v>
+        <v>203.8424276152394</v>
       </c>
       <c r="D36" t="n">
         <v>172.0989423795122</v>
@@ -25247,16 +25247,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G36" t="n">
-        <v>160.7566955463175</v>
+        <v>160.7631167826437</v>
       </c>
       <c r="H36" t="n">
-        <v>135.2560037184457</v>
+        <v>135.3180193429644</v>
       </c>
       <c r="I36" t="n">
-        <v>108.0585773132742</v>
+        <v>108.279659353452</v>
       </c>
       <c r="J36" t="n">
-        <v>57.05728135221786</v>
+        <v>57.66394736845585</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25277,28 +25277,28 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>20.85846916283117</v>
+        <v>21.67813434720469</v>
       </c>
       <c r="R36" t="n">
-        <v>138.3568033103546</v>
+        <v>138.7554832289223</v>
       </c>
       <c r="S36" t="n">
-        <v>203.2252294781581</v>
+        <v>203.3445011265852</v>
       </c>
       <c r="T36" t="n">
-        <v>229.0542823371759</v>
+        <v>212.6030713682169</v>
       </c>
       <c r="U36" t="n">
-        <v>249.6325629711146</v>
+        <v>233.1558923633886</v>
       </c>
       <c r="V36" t="n">
-        <v>245.5276110986485</v>
+        <v>232.8228321226881</v>
       </c>
       <c r="W36" t="n">
-        <v>278.9664296948976</v>
+        <v>268.7362331978989</v>
       </c>
       <c r="X36" t="n">
-        <v>225.7502366429295</v>
+        <v>230.033063710963</v>
       </c>
       <c r="Y36" t="n">
         <v>242.8962664135933</v>
@@ -25326,49 +25326,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G37" t="n">
-        <v>169.0178560074606</v>
+        <v>169.0232393562931</v>
       </c>
       <c r="H37" t="n">
-        <v>165.652516662606</v>
+        <v>165.7003795276809</v>
       </c>
       <c r="I37" t="n">
-        <v>161.2240227904026</v>
+        <v>161.3859147716582</v>
       </c>
       <c r="J37" t="n">
-        <v>116.9719494343337</v>
+        <v>117.3525521967958</v>
       </c>
       <c r="K37" t="n">
-        <v>62.30800718194584</v>
+        <v>62.93345443721984</v>
       </c>
       <c r="L37" t="n">
-        <v>28.82512584867504</v>
+        <v>29.62548300147245</v>
       </c>
       <c r="M37" t="n">
-        <v>23.70593511229166</v>
+        <v>24.54979951156312</v>
       </c>
       <c r="N37" t="n">
-        <v>12.17087189848527</v>
+        <v>12.99467108847176</v>
       </c>
       <c r="O37" t="n">
-        <v>40.12129158287594</v>
+        <v>40.88220347059112</v>
       </c>
       <c r="P37" t="n">
-        <v>63.66140083233181</v>
+        <v>64.31249240386273</v>
       </c>
       <c r="Q37" t="n">
-        <v>133.5075953093629</v>
+        <v>133.9583773647877</v>
       </c>
       <c r="R37" t="n">
-        <v>211.3176847042434</v>
+        <v>211.5597396435694</v>
       </c>
       <c r="S37" t="n">
-        <v>239.9185573882143</v>
+        <v>240.0123744765054</v>
       </c>
       <c r="T37" t="n">
-        <v>217.161484376974</v>
+        <v>217.1844859583495</v>
       </c>
       <c r="U37" t="n">
-        <v>291.2077695109479</v>
+        <v>291.208063148157</v>
       </c>
       <c r="V37" t="n">
         <v>237.3615500762718</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>360.2735005290297</v>
+        <v>364.5563275970632</v>
       </c>
       <c r="C38" t="n">
         <v>333.5971194742085</v>
@@ -25399,22 +25399,22 @@
         <v>319.1317556432476</v>
       </c>
       <c r="E38" t="n">
-        <v>359.9585549362873</v>
+        <v>345.4455313712551</v>
       </c>
       <c r="F38" t="n">
-        <v>395.3741034918451</v>
+        <v>382.6693245158847</v>
       </c>
       <c r="G38" t="n">
-        <v>417.4150373457111</v>
+        <v>405.2327726090255</v>
       </c>
       <c r="H38" t="n">
-        <v>340.4334987384392</v>
+        <v>328.3621405788695</v>
       </c>
       <c r="I38" t="n">
-        <v>234.6750516317711</v>
+        <v>235.1377299289993</v>
       </c>
       <c r="J38" t="n">
-        <v>60.20306687307112</v>
+        <v>61.2216581999468</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25435,19 +25435,19 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>65.56688955197782</v>
+        <v>66.8628898365198</v>
       </c>
       <c r="R38" t="n">
-        <v>179.3367994018382</v>
+        <v>180.0906730958467</v>
       </c>
       <c r="S38" t="n">
-        <v>224.2676612510166</v>
+        <v>224.5411397984024</v>
       </c>
       <c r="T38" t="n">
-        <v>217.2306048966195</v>
+        <v>217.2831403805989</v>
       </c>
       <c r="U38" t="n">
-        <v>248.7502169638986</v>
+        <v>248.7511770641198</v>
       </c>
       <c r="V38" t="n">
         <v>313.3044420010231</v>
@@ -25484,16 +25484,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G39" t="n">
-        <v>156.9843814647936</v>
+        <v>160.7631167826437</v>
       </c>
       <c r="H39" t="n">
-        <v>135.2560037184457</v>
+        <v>135.3180193429644</v>
       </c>
       <c r="I39" t="n">
-        <v>108.0585773132742</v>
+        <v>108.279659353452</v>
       </c>
       <c r="J39" t="n">
-        <v>57.05728135221786</v>
+        <v>57.66394736845585</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25514,31 +25514,31 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>20.85846916283117</v>
+        <v>21.67813434720469</v>
       </c>
       <c r="R39" t="n">
-        <v>138.3568033103546</v>
+        <v>138.7554832289223</v>
       </c>
       <c r="S39" t="n">
-        <v>198.9424024101245</v>
+        <v>203.3445011265852</v>
       </c>
       <c r="T39" t="n">
-        <v>224.7714552691424</v>
+        <v>229.0801644257012</v>
       </c>
       <c r="U39" t="n">
-        <v>245.3497359030811</v>
+        <v>233.1558923633886</v>
       </c>
       <c r="V39" t="n">
-        <v>249.2999251801724</v>
+        <v>232.8228321226881</v>
       </c>
       <c r="W39" t="n">
-        <v>283.2492567629311</v>
+        <v>266.7721637054468</v>
       </c>
       <c r="X39" t="n">
         <v>230.033063710963</v>
       </c>
       <c r="Y39" t="n">
-        <v>242.8962664135933</v>
+        <v>228.3832428485612</v>
       </c>
     </row>
     <row r="40">
@@ -25563,49 +25563,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G40" t="n">
-        <v>169.0178560074606</v>
+        <v>169.0232393562931</v>
       </c>
       <c r="H40" t="n">
-        <v>165.652516662606</v>
+        <v>165.7003795276809</v>
       </c>
       <c r="I40" t="n">
-        <v>161.2240227904026</v>
+        <v>161.3859147716582</v>
       </c>
       <c r="J40" t="n">
-        <v>116.9719494343337</v>
+        <v>117.3525521967958</v>
       </c>
       <c r="K40" t="n">
-        <v>62.30800718194584</v>
+        <v>62.93345443721984</v>
       </c>
       <c r="L40" t="n">
-        <v>28.82512584867504</v>
+        <v>29.62548300147245</v>
       </c>
       <c r="M40" t="n">
-        <v>23.70593511229166</v>
+        <v>24.54979951156312</v>
       </c>
       <c r="N40" t="n">
-        <v>12.17087189848527</v>
+        <v>12.99467108847176</v>
       </c>
       <c r="O40" t="n">
-        <v>40.12129158287594</v>
+        <v>40.88220347059112</v>
       </c>
       <c r="P40" t="n">
-        <v>63.66140083233181</v>
+        <v>64.31249240386273</v>
       </c>
       <c r="Q40" t="n">
-        <v>133.5075953093629</v>
+        <v>133.9583773647877</v>
       </c>
       <c r="R40" t="n">
-        <v>211.3176847042434</v>
+        <v>211.5597396435694</v>
       </c>
       <c r="S40" t="n">
-        <v>239.9185573882143</v>
+        <v>240.0123744765054</v>
       </c>
       <c r="T40" t="n">
-        <v>217.161484376974</v>
+        <v>217.1844859583495</v>
       </c>
       <c r="U40" t="n">
-        <v>291.2077695109479</v>
+        <v>291.208063148157</v>
       </c>
       <c r="V40" t="n">
         <v>237.3615500762718</v>
@@ -25630,7 +25630,7 @@
         <v>364.5563275970632</v>
       </c>
       <c r="C41" t="n">
-        <v>331.7109624334466</v>
+        <v>317.1200264167242</v>
       </c>
       <c r="D41" t="n">
         <v>319.1317556432476</v>
@@ -25642,16 +25642,16 @@
         <v>399.146417573369</v>
       </c>
       <c r="G41" t="n">
-        <v>421.6978644137446</v>
+        <v>421.7098656665098</v>
       </c>
       <c r="H41" t="n">
-        <v>344.7163258064727</v>
+        <v>344.8392336363538</v>
       </c>
       <c r="I41" t="n">
-        <v>234.6750516317711</v>
+        <v>235.1377299289993</v>
       </c>
       <c r="J41" t="n">
-        <v>60.20306687307112</v>
+        <v>61.2216581999468</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25672,22 +25672,22 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>65.56688955197782</v>
+        <v>52.34986627148761</v>
       </c>
       <c r="R41" t="n">
-        <v>179.3367994018382</v>
+        <v>180.0906730958467</v>
       </c>
       <c r="S41" t="n">
-        <v>222.126247717</v>
+        <v>224.5411397984024</v>
       </c>
       <c r="T41" t="n">
-        <v>215.0891913626029</v>
+        <v>217.2831403805989</v>
       </c>
       <c r="U41" t="n">
-        <v>246.6088034298819</v>
+        <v>232.2740840066355</v>
       </c>
       <c r="V41" t="n">
-        <v>313.3044420010231</v>
+        <v>296.8273489435388</v>
       </c>
       <c r="W41" t="n">
         <v>325.3917254792934</v>
@@ -25721,16 +25721,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G42" t="n">
-        <v>160.7566955463175</v>
+        <v>146.2500932176115</v>
       </c>
       <c r="H42" t="n">
-        <v>135.2560037184457</v>
+        <v>135.3180193429644</v>
       </c>
       <c r="I42" t="n">
-        <v>108.0585773132742</v>
+        <v>108.279659353452</v>
       </c>
       <c r="J42" t="n">
-        <v>57.05728135221786</v>
+        <v>57.66394736845585</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25751,31 +25751,31 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>18.71705562881453</v>
+        <v>21.67813434720469</v>
       </c>
       <c r="R42" t="n">
-        <v>138.3568033103546</v>
+        <v>138.7554832289223</v>
       </c>
       <c r="S42" t="n">
-        <v>203.2252294781581</v>
+        <v>186.8674080691008</v>
       </c>
       <c r="T42" t="n">
-        <v>229.0542823371759</v>
+        <v>212.6030713682169</v>
       </c>
       <c r="U42" t="n">
-        <v>247.491149437098</v>
+        <v>249.6329854208729</v>
       </c>
       <c r="V42" t="n">
-        <v>247.1585116461557</v>
+        <v>249.2999251801724</v>
       </c>
       <c r="W42" t="n">
-        <v>281.3630997221692</v>
+        <v>283.2492567629311</v>
       </c>
       <c r="X42" t="n">
         <v>230.033063710963</v>
       </c>
       <c r="Y42" t="n">
-        <v>242.8962664135933</v>
+        <v>226.419173356109</v>
       </c>
     </row>
     <row r="43">
@@ -25800,49 +25800,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G43" t="n">
-        <v>169.0178560074606</v>
+        <v>169.0232393562931</v>
       </c>
       <c r="H43" t="n">
-        <v>165.652516662606</v>
+        <v>165.7003795276809</v>
       </c>
       <c r="I43" t="n">
-        <v>161.2240227904026</v>
+        <v>161.3859147716582</v>
       </c>
       <c r="J43" t="n">
-        <v>116.9719494343337</v>
+        <v>117.3525521967958</v>
       </c>
       <c r="K43" t="n">
-        <v>62.30800718194584</v>
+        <v>62.93345443721984</v>
       </c>
       <c r="L43" t="n">
-        <v>28.82512584867504</v>
+        <v>29.62548300147245</v>
       </c>
       <c r="M43" t="n">
-        <v>23.70593511229166</v>
+        <v>24.54979951156312</v>
       </c>
       <c r="N43" t="n">
-        <v>12.17087189848527</v>
+        <v>12.99467108847176</v>
       </c>
       <c r="O43" t="n">
-        <v>40.12129158287594</v>
+        <v>40.88220347059112</v>
       </c>
       <c r="P43" t="n">
-        <v>63.66140083233181</v>
+        <v>64.31249240386273</v>
       </c>
       <c r="Q43" t="n">
-        <v>133.5075953093629</v>
+        <v>133.9583773647877</v>
       </c>
       <c r="R43" t="n">
-        <v>211.3176847042434</v>
+        <v>211.5597396435694</v>
       </c>
       <c r="S43" t="n">
-        <v>239.9185573882143</v>
+        <v>240.0123744765054</v>
       </c>
       <c r="T43" t="n">
-        <v>217.161484376974</v>
+        <v>217.1844859583495</v>
       </c>
       <c r="U43" t="n">
-        <v>291.2077695109479</v>
+        <v>291.208063148157</v>
       </c>
       <c r="V43" t="n">
         <v>237.3615500762718</v>
@@ -25867,7 +25867,7 @@
         <v>364.5563275970632</v>
       </c>
       <c r="C44" t="n">
-        <v>333.5971194742085</v>
+        <v>319.0840959091763</v>
       </c>
       <c r="D44" t="n">
         <v>319.1317556432476</v>
@@ -25876,19 +25876,19 @@
         <v>359.9585549362873</v>
       </c>
       <c r="F44" t="n">
-        <v>399.146417573369</v>
+        <v>382.6693245158847</v>
       </c>
       <c r="G44" t="n">
-        <v>419.5564508797279</v>
+        <v>421.7098656665098</v>
       </c>
       <c r="H44" t="n">
-        <v>344.7163258064727</v>
+        <v>344.8392336363538</v>
       </c>
       <c r="I44" t="n">
-        <v>234.6750516317711</v>
+        <v>235.1377299289993</v>
       </c>
       <c r="J44" t="n">
-        <v>60.20306687307112</v>
+        <v>61.2216581999468</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25909,22 +25909,22 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>63.42547601796119</v>
+        <v>66.8628898365198</v>
       </c>
       <c r="R44" t="n">
-        <v>177.1953858678215</v>
+        <v>180.0906730958467</v>
       </c>
       <c r="S44" t="n">
-        <v>224.2676612510166</v>
+        <v>224.5411397984024</v>
       </c>
       <c r="T44" t="n">
-        <v>217.2306048966195</v>
+        <v>217.2831403805989</v>
       </c>
       <c r="U44" t="n">
-        <v>246.8640599231367</v>
+        <v>232.2740840066355</v>
       </c>
       <c r="V44" t="n">
-        <v>313.3044420010231</v>
+        <v>296.8273489435388</v>
       </c>
       <c r="W44" t="n">
         <v>325.3917254792934</v>
@@ -25943,7 +25943,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>188.0127573810344</v>
+        <v>171.5356643235501</v>
       </c>
       <c r="C45" t="n">
         <v>203.8424276152394</v>
@@ -25958,16 +25958,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G45" t="n">
-        <v>160.7566955463175</v>
+        <v>160.7631167826437</v>
       </c>
       <c r="H45" t="n">
-        <v>135.2560037184457</v>
+        <v>135.3180193429644</v>
       </c>
       <c r="I45" t="n">
-        <v>108.0585773132742</v>
+        <v>108.279659353452</v>
       </c>
       <c r="J45" t="n">
-        <v>57.05728135221786</v>
+        <v>57.66394736845585</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25988,25 +25988,25 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>18.97231212206932</v>
+        <v>21.67813434720469</v>
       </c>
       <c r="R45" t="n">
-        <v>136.215389776338</v>
+        <v>122.2783901714379</v>
       </c>
       <c r="S45" t="n">
-        <v>203.2252294781581</v>
+        <v>186.8674080691008</v>
       </c>
       <c r="T45" t="n">
-        <v>226.9128688031593</v>
+        <v>229.0801644257012</v>
       </c>
       <c r="U45" t="n">
-        <v>249.6325629711146</v>
+        <v>235.1199618558408</v>
       </c>
       <c r="V45" t="n">
         <v>249.2999251801724</v>
       </c>
       <c r="W45" t="n">
-        <v>281.1078432289145</v>
+        <v>283.2492567629311</v>
       </c>
       <c r="X45" t="n">
         <v>230.033063710963</v>
@@ -26037,49 +26037,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G46" t="n">
-        <v>169.0178560074606</v>
+        <v>169.0232393562931</v>
       </c>
       <c r="H46" t="n">
-        <v>165.652516662606</v>
+        <v>165.7003795276809</v>
       </c>
       <c r="I46" t="n">
-        <v>161.2240227904026</v>
+        <v>161.3859147716582</v>
       </c>
       <c r="J46" t="n">
-        <v>116.9719494343337</v>
+        <v>117.3525521967958</v>
       </c>
       <c r="K46" t="n">
-        <v>62.30800718194584</v>
+        <v>62.93345443721984</v>
       </c>
       <c r="L46" t="n">
-        <v>28.82512584867504</v>
+        <v>29.62548300147245</v>
       </c>
       <c r="M46" t="n">
-        <v>23.70593511229166</v>
+        <v>24.54979951156312</v>
       </c>
       <c r="N46" t="n">
-        <v>12.17087189848527</v>
+        <v>12.99467108847176</v>
       </c>
       <c r="O46" t="n">
-        <v>40.12129158287594</v>
+        <v>40.88220347059112</v>
       </c>
       <c r="P46" t="n">
-        <v>63.66140083233181</v>
+        <v>64.31249240386273</v>
       </c>
       <c r="Q46" t="n">
-        <v>133.5075953093629</v>
+        <v>133.9583773647877</v>
       </c>
       <c r="R46" t="n">
-        <v>211.3176847042434</v>
+        <v>211.5597396435694</v>
       </c>
       <c r="S46" t="n">
-        <v>239.9185573882143</v>
+        <v>240.0123744765054</v>
       </c>
       <c r="T46" t="n">
-        <v>217.161484376974</v>
+        <v>217.1844859583495</v>
       </c>
       <c r="U46" t="n">
-        <v>291.2077695109479</v>
+        <v>291.208063148157</v>
       </c>
       <c r="V46" t="n">
         <v>237.3615500762718</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>402895.0244215038</v>
+        <v>402286.2307332921</v>
       </c>
     </row>
     <row r="4">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>440944.4303995384</v>
+        <v>438899.9356045843</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>440944.4303995384</v>
+        <v>438899.9356045843</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>442465.0141521837</v>
+        <v>450600.0577883829</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>442465.0141521838</v>
+        <v>450600.057788383</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>442465.0141521838</v>
+        <v>450600.0577883829</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>442465.0141521838</v>
+        <v>450600.0577883829</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>442465.0141521837</v>
+        <v>450600.057788383</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>442465.0141521837</v>
+        <v>450600.0577883829</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>440944.4303995384</v>
+        <v>450600.0577883829</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>440944.4303995381</v>
+        <v>450600.0577883829</v>
       </c>
     </row>
   </sheetData>
@@ -26316,7 +26316,7 @@
         <v>113412.9256578057</v>
       </c>
       <c r="C2" t="n">
-        <v>114555.1214767689</v>
+        <v>114358.4004340137</v>
       </c>
       <c r="D2" t="n">
         <v>114555.1214767689</v>
@@ -26328,34 +26328,34 @@
         <v>127401.4768535782</v>
       </c>
       <c r="G2" t="n">
-        <v>128029.2407861383</v>
+        <v>127401.4768535782</v>
       </c>
       <c r="H2" t="n">
-        <v>128029.2407861383</v>
+        <v>127401.4768535782</v>
       </c>
       <c r="I2" t="n">
-        <v>128434.7881911075</v>
+        <v>130521.9588271675</v>
       </c>
       <c r="J2" t="n">
-        <v>128434.7881911076</v>
+        <v>130521.9588271675</v>
       </c>
       <c r="K2" t="n">
-        <v>128434.7881911076</v>
+        <v>130521.9588271675</v>
       </c>
       <c r="L2" t="n">
-        <v>128434.7881911076</v>
+        <v>130521.9588271675</v>
       </c>
       <c r="M2" t="n">
-        <v>128434.7881911076</v>
+        <v>130521.9588271675</v>
       </c>
       <c r="N2" t="n">
-        <v>128434.7881911076</v>
+        <v>130521.9588271675</v>
       </c>
       <c r="O2" t="n">
-        <v>128029.2407861383</v>
+        <v>130521.9588271675</v>
       </c>
       <c r="P2" t="n">
-        <v>128029.2407861383</v>
+        <v>130521.9588271675</v>
       </c>
     </row>
     <row r="3">
@@ -26368,25 +26368,25 @@
         <v>330871.7541851042</v>
       </c>
       <c r="C3" t="n">
-        <v>6633.965728588445</v>
+        <v>5491.393996085664</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1074.579704107482</v>
       </c>
       <c r="E3" t="n">
-        <v>94068.42750429735</v>
+        <v>94068.42750429739</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2907.970308113731</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>569.4468283792729</v>
+        <v>4381.605062939288</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26420,46 +26420,46 @@
         <v>16591.64067107515</v>
       </c>
       <c r="C4" t="n">
-        <v>16271.48943740879</v>
+        <v>16326.62926849606</v>
       </c>
       <c r="D4" t="n">
-        <v>16271.48943740879</v>
+        <v>16271.4894374088</v>
       </c>
       <c r="E4" t="n">
-        <v>8919.951223758009</v>
+        <v>8919.951223758011</v>
       </c>
       <c r="F4" t="n">
         <v>8919.951223758009</v>
       </c>
       <c r="G4" t="n">
-        <v>8847.29442754678</v>
+        <v>8919.951223758009</v>
       </c>
       <c r="H4" t="n">
-        <v>8847.29442754678</v>
+        <v>8919.951223758009</v>
       </c>
       <c r="I4" t="n">
-        <v>9000.70736964595</v>
+        <v>10100.38614818339</v>
       </c>
       <c r="J4" t="n">
-        <v>9000.70736964595</v>
+        <v>10100.3861481834</v>
       </c>
       <c r="K4" t="n">
-        <v>9000.707369645952</v>
+        <v>10100.3861481834</v>
       </c>
       <c r="L4" t="n">
-        <v>9000.707369645948</v>
+        <v>10100.38614818339</v>
       </c>
       <c r="M4" t="n">
-        <v>9000.707369645948</v>
+        <v>10100.38614818339</v>
       </c>
       <c r="N4" t="n">
-        <v>9000.707369645948</v>
+        <v>10100.38614818339</v>
       </c>
       <c r="O4" t="n">
-        <v>8847.294427546765</v>
+        <v>10100.38614818339</v>
       </c>
       <c r="P4" t="n">
-        <v>8847.294427546765</v>
+        <v>10100.38614818339</v>
       </c>
     </row>
     <row r="5">
@@ -26472,7 +26472,7 @@
         <v>41112.97456555201</v>
       </c>
       <c r="C5" t="n">
-        <v>41271.79307559616</v>
+        <v>41244.43967227775</v>
       </c>
       <c r="D5" t="n">
         <v>41271.79307559616</v>
@@ -26484,34 +26484,34 @@
         <v>10196.69999876384</v>
       </c>
       <c r="G5" t="n">
-        <v>10391.97773506426</v>
+        <v>10196.69999876384</v>
       </c>
       <c r="H5" t="n">
-        <v>10391.97773506426</v>
+        <v>10196.69999876384</v>
       </c>
       <c r="I5" t="n">
-        <v>10522.17567793247</v>
+        <v>11198.50725665889</v>
       </c>
       <c r="J5" t="n">
-        <v>10522.17567793247</v>
+        <v>11198.50725665889</v>
       </c>
       <c r="K5" t="n">
-        <v>10522.17567793247</v>
+        <v>11198.50725665889</v>
       </c>
       <c r="L5" t="n">
-        <v>10522.17567793247</v>
+        <v>11198.50725665889</v>
       </c>
       <c r="M5" t="n">
-        <v>10522.17567793247</v>
+        <v>11198.50725665889</v>
       </c>
       <c r="N5" t="n">
-        <v>10522.17567793247</v>
+        <v>11198.50725665889</v>
       </c>
       <c r="O5" t="n">
-        <v>10391.97773506424</v>
+        <v>11198.50725665889</v>
       </c>
       <c r="P5" t="n">
-        <v>10391.97773506424</v>
+        <v>11198.50725665889</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-275163.4437639256</v>
+        <v>-291895.2722347427</v>
       </c>
       <c r="C6" t="n">
-        <v>50377.8732351755</v>
+        <v>34623.20119985002</v>
       </c>
       <c r="D6" t="n">
-        <v>57011.83896376393</v>
+        <v>39276.81802752448</v>
       </c>
       <c r="E6" t="n">
-        <v>14216.39812675901</v>
+        <v>-1641.145894322415</v>
       </c>
       <c r="F6" t="n">
-        <v>108284.8256310564</v>
+        <v>92427.28160997498</v>
       </c>
       <c r="G6" t="n">
-        <v>105881.9983154136</v>
+        <v>92427.28160997501</v>
       </c>
       <c r="H6" t="n">
-        <v>108789.9686235273</v>
+        <v>92427.28160997498</v>
       </c>
       <c r="I6" t="n">
-        <v>108342.4583151499</v>
+        <v>89178.94646165385</v>
       </c>
       <c r="J6" t="n">
-        <v>108911.9051435291</v>
+        <v>93560.55152459315</v>
       </c>
       <c r="K6" t="n">
-        <v>108911.9051435291</v>
+        <v>93560.55152459315</v>
       </c>
       <c r="L6" t="n">
-        <v>108911.9051435291</v>
+        <v>93560.55152459313</v>
       </c>
       <c r="M6" t="n">
-        <v>108911.9051435291</v>
+        <v>93560.55152459313</v>
       </c>
       <c r="N6" t="n">
-        <v>108911.9051435291</v>
+        <v>93560.55152459313</v>
       </c>
       <c r="O6" t="n">
-        <v>108789.9686235273</v>
+        <v>93560.55152459313</v>
       </c>
       <c r="P6" t="n">
-        <v>108789.9686235273</v>
+        <v>93560.55152459313</v>
       </c>
     </row>
   </sheetData>
@@ -26740,7 +26740,7 @@
         <v>343.3658057592666</v>
       </c>
       <c r="C3" t="n">
-        <v>350.6510585135856</v>
+        <v>349.3963152420984</v>
       </c>
       <c r="D3" t="n">
         <v>350.6510585135856</v>
@@ -26752,34 +26752,34 @@
         <v>467.7385320533874</v>
       </c>
       <c r="G3" t="n">
-        <v>470.7238436787171</v>
+        <v>467.7385320533874</v>
       </c>
       <c r="H3" t="n">
-        <v>470.7238436787171</v>
+        <v>467.7385320533874</v>
       </c>
       <c r="I3" t="n">
-        <v>470.7238436787171</v>
+        <v>467.7385320533874</v>
       </c>
       <c r="J3" t="n">
-        <v>470.7238436787171</v>
+        <v>467.7385320533874</v>
       </c>
       <c r="K3" t="n">
-        <v>470.7238436787171</v>
+        <v>467.7385320533874</v>
       </c>
       <c r="L3" t="n">
-        <v>470.7238436787171</v>
+        <v>467.7385320533874</v>
       </c>
       <c r="M3" t="n">
-        <v>470.7238436787171</v>
+        <v>467.7385320533874</v>
       </c>
       <c r="N3" t="n">
-        <v>470.7238436787171</v>
+        <v>467.7385320533874</v>
       </c>
       <c r="O3" t="n">
-        <v>470.7238436787171</v>
+        <v>467.7385320533874</v>
       </c>
       <c r="P3" t="n">
-        <v>470.7238436787171</v>
+        <v>467.7385320533874</v>
       </c>
     </row>
     <row r="4">
@@ -26804,34 +26804,34 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>2.141413534016885</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>2.141413534016885</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>4.28282706803352</v>
+        <v>16.47709305748432</v>
       </c>
       <c r="J4" t="n">
-        <v>4.28282706803352</v>
+        <v>16.47709305748432</v>
       </c>
       <c r="K4" t="n">
-        <v>4.28282706803352</v>
+        <v>16.47709305748432</v>
       </c>
       <c r="L4" t="n">
-        <v>4.28282706803352</v>
+        <v>16.47709305748432</v>
       </c>
       <c r="M4" t="n">
-        <v>4.28282706803352</v>
+        <v>16.47709305748431</v>
       </c>
       <c r="N4" t="n">
-        <v>4.28282706803352</v>
+        <v>16.47709305748431</v>
       </c>
       <c r="O4" t="n">
-        <v>2.141413534016635</v>
+        <v>16.47709305748431</v>
       </c>
       <c r="P4" t="n">
-        <v>2.141413534016635</v>
+        <v>16.47709305748431</v>
       </c>
     </row>
   </sheetData>
@@ -26962,19 +26962,19 @@
         <v>343.3658057592666</v>
       </c>
       <c r="C3" t="n">
-        <v>7.28525275431906</v>
+        <v>6.030509482831867</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.25474327148725</v>
       </c>
       <c r="E3" t="n">
-        <v>117.0874735398017</v>
+        <v>117.0874735398018</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.9853116253297</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27026,13 +27026,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>2.141413534016885</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>2.141413534016768</v>
+        <v>16.47709305748432</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>2.141413534016885</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.409652496537026</v>
+        <v>1.404608302480796</v>
       </c>
       <c r="H5" t="n">
-        <v>14.43660363015982</v>
+        <v>14.38494477778146</v>
       </c>
       <c r="I5" t="n">
-        <v>54.34562787274375</v>
+        <v>54.15116158139095</v>
       </c>
       <c r="J5" t="n">
-        <v>119.6424935779595</v>
+        <v>119.2143739126796</v>
       </c>
       <c r="K5" t="n">
-        <v>179.3130837563719</v>
+        <v>178.6714433566918</v>
       </c>
       <c r="L5" t="n">
-        <v>222.453736347267</v>
+        <v>221.6577246937385</v>
       </c>
       <c r="M5" t="n">
-        <v>247.5226439325573</v>
+        <v>246.6369275929813</v>
       </c>
       <c r="N5" t="n">
-        <v>251.5278190883431</v>
+        <v>250.6277709324049</v>
       </c>
       <c r="O5" t="n">
-        <v>237.5105870759031</v>
+        <v>236.6606971246115</v>
       </c>
       <c r="P5" t="n">
-        <v>202.7097910676452</v>
+        <v>201.9844296571168</v>
       </c>
       <c r="Q5" t="n">
-        <v>152.2266110354129</v>
+        <v>151.6818948245232</v>
       </c>
       <c r="R5" t="n">
-        <v>88.54908363559406</v>
+        <v>88.2322262807094</v>
       </c>
       <c r="S5" t="n">
-        <v>32.12245626483752</v>
+        <v>32.00751169278118</v>
       </c>
       <c r="T5" t="n">
-        <v>6.170753803590836</v>
+        <v>6.148672844109689</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1127721997229621</v>
+        <v>0.1123686641984637</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.7542305786895992</v>
+        <v>0.7515316969358342</v>
       </c>
       <c r="H6" t="n">
-        <v>7.284279536291656</v>
+        <v>7.25821402040661</v>
       </c>
       <c r="I6" t="n">
-        <v>25.96802650312874</v>
+        <v>25.87510447783465</v>
       </c>
       <c r="J6" t="n">
-        <v>71.25824954189763</v>
+        <v>71.0032644021702</v>
       </c>
       <c r="K6" t="n">
-        <v>121.7916983141008</v>
+        <v>121.3558880968711</v>
       </c>
       <c r="L6" t="n">
-        <v>163.7639684124062</v>
+        <v>163.1779677930196</v>
       </c>
       <c r="M6" t="n">
-        <v>191.1048268899041</v>
+        <v>190.4209918069436</v>
       </c>
       <c r="N6" t="n">
         <v>192.087253921875</v>
       </c>
       <c r="O6" t="n">
-        <v>179.4506412376083</v>
+        <v>178.8085086126237</v>
       </c>
       <c r="P6" t="n">
-        <v>144.0249602411744</v>
+        <v>143.5095921982121</v>
       </c>
       <c r="Q6" t="n">
-        <v>96.27687176395656</v>
+        <v>95.9323618755286</v>
       </c>
       <c r="R6" t="n">
-        <v>46.8284564558332</v>
+        <v>46.66088904308629</v>
       </c>
       <c r="S6" t="n">
-        <v>14.00950219627391</v>
+        <v>13.95937165141779</v>
       </c>
       <c r="T6" t="n">
-        <v>3.040078516735708</v>
+        <v>3.029200129315927</v>
       </c>
       <c r="U6" t="n">
-        <v>0.04962043280852628</v>
+        <v>0.04944287479841016</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6323215809261378</v>
+        <v>0.6300589291250953</v>
       </c>
       <c r="H7" t="n">
-        <v>5.621913692234211</v>
+        <v>5.601796660766761</v>
       </c>
       <c r="I7" t="n">
-        <v>19.0156344518515</v>
+        <v>18.9475903413256</v>
       </c>
       <c r="J7" t="n">
-        <v>44.70513577147794</v>
+        <v>44.54516628914423</v>
       </c>
       <c r="K7" t="n">
-        <v>73.46427094760035</v>
+        <v>73.20139194744287</v>
       </c>
       <c r="L7" t="n">
-        <v>94.00897394969145</v>
+        <v>93.67257933556192</v>
       </c>
       <c r="M7" t="n">
-        <v>99.11928199917629</v>
+        <v>98.76460104458198</v>
       </c>
       <c r="N7" t="n">
-        <v>96.7624470157244</v>
+        <v>96.41619958147943</v>
       </c>
       <c r="O7" t="n">
-        <v>89.37578127490541</v>
+        <v>89.05596572760896</v>
       </c>
       <c r="P7" t="n">
-        <v>76.47642102401213</v>
+        <v>76.20276357345695</v>
       </c>
       <c r="Q7" t="n">
-        <v>52.94830983555142</v>
+        <v>52.75884360155685</v>
       </c>
       <c r="R7" t="n">
-        <v>28.43147762964252</v>
+        <v>28.32974057684292</v>
       </c>
       <c r="S7" t="n">
-        <v>11.01964064214005</v>
+        <v>10.98020879211643</v>
       </c>
       <c r="T7" t="n">
-        <v>2.701737663957134</v>
+        <v>2.692069969898134</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03449026805051665</v>
+        <v>0.03436685067955069</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31782,7 +31782,7 @@
         <v>270.397529979667</v>
       </c>
       <c r="Q11" t="n">
-        <v>203.0572840332874</v>
+        <v>203.0572840332873</v>
       </c>
       <c r="R11" t="n">
         <v>118.1169067903461</v>
@@ -31791,7 +31791,7 @@
         <v>42.8486102479058</v>
       </c>
       <c r="T11" t="n">
-        <v>8.231257986185739</v>
+        <v>8.23125798618574</v>
       </c>
       <c r="U11" t="n">
         <v>0.1504284726201847</v>
@@ -31873,7 +31873,7 @@
         <v>4.055204820349649</v>
       </c>
       <c r="U12" t="n">
-        <v>0.06618941491321523</v>
+        <v>0.06618941491321521</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,7 +31913,7 @@
         <v>0.8434629266536492</v>
       </c>
       <c r="H13" t="n">
-        <v>7.499152202429723</v>
+        <v>7.499152202429724</v>
       </c>
       <c r="I13" t="n">
         <v>25.36523055791157</v>
@@ -31922,7 +31922,7 @@
         <v>59.632828914413</v>
       </c>
       <c r="K13" t="n">
-        <v>97.9950563875785</v>
+        <v>97.99505638757849</v>
       </c>
       <c r="L13" t="n">
         <v>125.3999336590344</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.892357160517454</v>
+        <v>1.88035590775231</v>
       </c>
       <c r="H17" t="n">
-        <v>19.38010277014938</v>
+        <v>19.25719494026835</v>
       </c>
       <c r="I17" t="n">
-        <v>72.95509943084922</v>
+        <v>72.49242113362098</v>
       </c>
       <c r="J17" t="n">
-        <v>160.6114485524684</v>
+        <v>159.5928572255927</v>
       </c>
       <c r="K17" t="n">
-        <v>240.7149271571723</v>
+        <v>239.188322800748</v>
       </c>
       <c r="L17" t="n">
-        <v>298.6281526083584</v>
+        <v>296.7342649126228</v>
       </c>
       <c r="M17" t="n">
-        <v>332.2813592617106</v>
+        <v>330.174044287113</v>
       </c>
       <c r="N17" t="n">
-        <v>337.6580190440311</v>
+        <v>335.5166055100142</v>
       </c>
       <c r="O17" t="n">
-        <v>318.8408925291354</v>
+        <v>316.8188164523022</v>
       </c>
       <c r="P17" t="n">
-        <v>272.1233251288608</v>
+        <v>270.397529979667</v>
       </c>
       <c r="Q17" t="n">
-        <v>204.3532843178293</v>
+        <v>203.0572840332874</v>
       </c>
       <c r="R17" t="n">
-        <v>118.8707804843546</v>
+        <v>118.1169067903461</v>
       </c>
       <c r="S17" t="n">
-        <v>43.12208879529152</v>
+        <v>42.8486102479058</v>
       </c>
       <c r="T17" t="n">
-        <v>8.283793470165159</v>
+        <v>8.231257986185739</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1513885728413963</v>
+        <v>0.1504284726201847</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.012500343007052</v>
+        <v>1.006079106680871</v>
       </c>
       <c r="H18" t="n">
-        <v>9.778621733778634</v>
+        <v>9.716606109259992</v>
       </c>
       <c r="I18" t="n">
-        <v>34.86020917809368</v>
+        <v>34.63912713791596</v>
       </c>
       <c r="J18" t="n">
-        <v>95.6590784592759</v>
+        <v>95.05241244303791</v>
       </c>
       <c r="K18" t="n">
-        <v>163.4966014407484</v>
+        <v>162.4597125906563</v>
       </c>
       <c r="L18" t="n">
-        <v>204.6906722031327</v>
+        <v>202.635780428066</v>
       </c>
       <c r="M18" t="n">
-        <v>210.0124381449687</v>
+        <v>207.8710246109518</v>
       </c>
       <c r="N18" t="n">
-        <v>194.2286674558919</v>
+        <v>192.087253921875</v>
       </c>
       <c r="O18" t="n">
-        <v>210.6884210340169</v>
+        <v>208.5470075</v>
       </c>
       <c r="P18" t="n">
-        <v>193.3431576045659</v>
+        <v>192.1169830994376</v>
       </c>
       <c r="Q18" t="n">
-        <v>129.2447806266545</v>
+        <v>128.425115442281</v>
       </c>
       <c r="R18" t="n">
-        <v>62.86383708599926</v>
+        <v>62.46515716743164</v>
       </c>
       <c r="S18" t="n">
-        <v>18.80674979225817</v>
+        <v>18.68747814383108</v>
       </c>
       <c r="T18" t="n">
-        <v>4.081086908874913</v>
+        <v>4.055204820349649</v>
       </c>
       <c r="U18" t="n">
-        <v>0.0666118646715166</v>
+        <v>0.06618941491321523</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8488462754862109</v>
+        <v>0.8434629266536492</v>
       </c>
       <c r="H19" t="n">
-        <v>7.547015067504682</v>
+        <v>7.499152202429723</v>
       </c>
       <c r="I19" t="n">
-        <v>25.52712253916715</v>
+        <v>25.36523055791157</v>
       </c>
       <c r="J19" t="n">
-        <v>60.01343167687511</v>
+        <v>59.632828914413</v>
       </c>
       <c r="K19" t="n">
-        <v>98.6205036428525</v>
+        <v>97.9950563875785</v>
       </c>
       <c r="L19" t="n">
-        <v>126.2002908118318</v>
+        <v>125.3999336590344</v>
       </c>
       <c r="M19" t="n">
-        <v>133.0605120746249</v>
+        <v>132.2166476753534</v>
       </c>
       <c r="N19" t="n">
-        <v>129.8966305023582</v>
+        <v>129.0728313123717</v>
       </c>
       <c r="O19" t="n">
-        <v>119.9805626478147</v>
+        <v>119.2196507600995</v>
       </c>
       <c r="P19" t="n">
-        <v>102.6640986278959</v>
+        <v>102.013007056365</v>
       </c>
       <c r="Q19" t="n">
-        <v>71.07930039548627</v>
+        <v>70.62851834006149</v>
       </c>
       <c r="R19" t="n">
-        <v>38.16721525958908</v>
+        <v>37.92516032026317</v>
       </c>
       <c r="S19" t="n">
-        <v>14.79307554642787</v>
+        <v>14.69925845813677</v>
       </c>
       <c r="T19" t="n">
-        <v>3.626888631622901</v>
+        <v>3.60388705024741</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04630070593561156</v>
+        <v>0.04600706872656274</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.892357160517454</v>
+        <v>1.88035590775231</v>
       </c>
       <c r="H20" t="n">
-        <v>19.38010277014938</v>
+        <v>19.25719494026835</v>
       </c>
       <c r="I20" t="n">
-        <v>72.95509943084922</v>
+        <v>72.49242113362098</v>
       </c>
       <c r="J20" t="n">
-        <v>160.6114485524684</v>
+        <v>159.5928572255927</v>
       </c>
       <c r="K20" t="n">
-        <v>240.7149271571723</v>
+        <v>239.188322800748</v>
       </c>
       <c r="L20" t="n">
-        <v>298.6281526083584</v>
+        <v>296.7342649126228</v>
       </c>
       <c r="M20" t="n">
-        <v>332.2813592617106</v>
+        <v>330.174044287113</v>
       </c>
       <c r="N20" t="n">
-        <v>337.6580190440309</v>
+        <v>335.5166055100142</v>
       </c>
       <c r="O20" t="n">
-        <v>318.8408925291354</v>
+        <v>316.8188164523022</v>
       </c>
       <c r="P20" t="n">
-        <v>272.1233251288608</v>
+        <v>270.397529979667</v>
       </c>
       <c r="Q20" t="n">
-        <v>204.3532843178293</v>
+        <v>203.0572840332874</v>
       </c>
       <c r="R20" t="n">
-        <v>118.8707804843546</v>
+        <v>118.1169067903461</v>
       </c>
       <c r="S20" t="n">
-        <v>43.12208879529152</v>
+        <v>42.8486102479058</v>
       </c>
       <c r="T20" t="n">
-        <v>8.283793470165159</v>
+        <v>8.231257986185739</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1513885728413963</v>
+        <v>0.1504284726201847</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.012500343007052</v>
+        <v>1.006079106680871</v>
       </c>
       <c r="H21" t="n">
-        <v>9.778621733778634</v>
+        <v>9.716606109259992</v>
       </c>
       <c r="I21" t="n">
-        <v>34.86020917809368</v>
+        <v>34.63912713791596</v>
       </c>
       <c r="J21" t="n">
-        <v>95.6590784592759</v>
+        <v>95.05241244303791</v>
       </c>
       <c r="K21" t="n">
-        <v>163.4966014407484</v>
+        <v>162.4597125906563</v>
       </c>
       <c r="L21" t="n">
-        <v>204.7771939620829</v>
+        <v>202.635780428066</v>
       </c>
       <c r="M21" t="n">
-        <v>210.0124381449687</v>
+        <v>207.8710246109518</v>
       </c>
       <c r="N21" t="n">
-        <v>194.2286674558919</v>
+        <v>192.087253921875</v>
       </c>
       <c r="O21" t="n">
-        <v>210.6018992750667</v>
+        <v>208.5470075</v>
       </c>
       <c r="P21" t="n">
-        <v>193.3431576045659</v>
+        <v>192.1169830994376</v>
       </c>
       <c r="Q21" t="n">
-        <v>129.2447806266545</v>
+        <v>128.425115442281</v>
       </c>
       <c r="R21" t="n">
-        <v>62.86383708599926</v>
+        <v>62.46515716743164</v>
       </c>
       <c r="S21" t="n">
-        <v>18.80674979225817</v>
+        <v>18.68747814383108</v>
       </c>
       <c r="T21" t="n">
-        <v>4.081086908874913</v>
+        <v>4.055204820349649</v>
       </c>
       <c r="U21" t="n">
-        <v>0.0666118646715166</v>
+        <v>0.06618941491321523</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8488462754862109</v>
+        <v>0.8434629266536492</v>
       </c>
       <c r="H22" t="n">
-        <v>7.547015067504682</v>
+        <v>7.499152202429723</v>
       </c>
       <c r="I22" t="n">
-        <v>25.52712253916715</v>
+        <v>25.36523055791157</v>
       </c>
       <c r="J22" t="n">
-        <v>60.01343167687511</v>
+        <v>59.632828914413</v>
       </c>
       <c r="K22" t="n">
-        <v>98.6205036428525</v>
+        <v>97.9950563875785</v>
       </c>
       <c r="L22" t="n">
-        <v>126.2002908118318</v>
+        <v>125.3999336590344</v>
       </c>
       <c r="M22" t="n">
-        <v>133.0605120746249</v>
+        <v>132.2166476753534</v>
       </c>
       <c r="N22" t="n">
-        <v>129.8966305023582</v>
+        <v>129.0728313123717</v>
       </c>
       <c r="O22" t="n">
-        <v>119.9805626478147</v>
+        <v>119.2196507600995</v>
       </c>
       <c r="P22" t="n">
-        <v>102.6640986278959</v>
+        <v>102.013007056365</v>
       </c>
       <c r="Q22" t="n">
-        <v>71.07930039548627</v>
+        <v>70.62851834006149</v>
       </c>
       <c r="R22" t="n">
-        <v>38.16721525958908</v>
+        <v>37.92516032026317</v>
       </c>
       <c r="S22" t="n">
-        <v>14.79307554642787</v>
+        <v>14.69925845813677</v>
       </c>
       <c r="T22" t="n">
-        <v>3.626888631622901</v>
+        <v>3.60388705024741</v>
       </c>
       <c r="U22" t="n">
-        <v>0.04630070593561156</v>
+        <v>0.04600706872656274</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.892357160517454</v>
+        <v>1.88035590775231</v>
       </c>
       <c r="H23" t="n">
-        <v>19.38010277014938</v>
+        <v>19.25719494026835</v>
       </c>
       <c r="I23" t="n">
-        <v>72.95509943084922</v>
+        <v>72.49242113362098</v>
       </c>
       <c r="J23" t="n">
-        <v>160.6114485524684</v>
+        <v>159.5928572255927</v>
       </c>
       <c r="K23" t="n">
-        <v>240.7149271571723</v>
+        <v>239.188322800748</v>
       </c>
       <c r="L23" t="n">
-        <v>298.6281526083584</v>
+        <v>296.7342649126228</v>
       </c>
       <c r="M23" t="n">
-        <v>332.2813592617106</v>
+        <v>330.174044287113</v>
       </c>
       <c r="N23" t="n">
-        <v>337.6580190440309</v>
+        <v>335.5166055100142</v>
       </c>
       <c r="O23" t="n">
-        <v>318.8408925291354</v>
+        <v>316.8188164523022</v>
       </c>
       <c r="P23" t="n">
-        <v>272.1233251288608</v>
+        <v>270.397529979667</v>
       </c>
       <c r="Q23" t="n">
-        <v>204.3532843178293</v>
+        <v>203.0572840332874</v>
       </c>
       <c r="R23" t="n">
-        <v>118.8707804843546</v>
+        <v>118.1169067903461</v>
       </c>
       <c r="S23" t="n">
-        <v>43.12208879529152</v>
+        <v>42.8486102479058</v>
       </c>
       <c r="T23" t="n">
-        <v>8.283793470165159</v>
+        <v>8.231257986185739</v>
       </c>
       <c r="U23" t="n">
-        <v>0.1513885728413963</v>
+        <v>0.1504284726201847</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.012500343007052</v>
+        <v>1.006079106680871</v>
       </c>
       <c r="H24" t="n">
-        <v>9.778621733778634</v>
+        <v>9.716606109259992</v>
       </c>
       <c r="I24" t="n">
-        <v>34.86020917809368</v>
+        <v>34.63912713791596</v>
       </c>
       <c r="J24" t="n">
-        <v>95.6590784592759</v>
+        <v>95.05241244303791</v>
       </c>
       <c r="K24" t="n">
-        <v>163.4966014407484</v>
+        <v>162.4597125906563</v>
       </c>
       <c r="L24" t="n">
-        <v>206.9186074960995</v>
+        <v>218.4471323519146</v>
       </c>
       <c r="M24" t="n">
-        <v>212.1538516789853</v>
+        <v>224.3481176684361</v>
       </c>
       <c r="N24" t="n">
-        <v>196.1970374720082</v>
+        <v>208.5643469793593</v>
       </c>
       <c r="O24" t="n">
-        <v>212.8298345680335</v>
+        <v>225.0241005574843</v>
       </c>
       <c r="P24" t="n">
-        <v>193.3431576045659</v>
+        <v>192.1169830994376</v>
       </c>
       <c r="Q24" t="n">
-        <v>129.2447806266545</v>
+        <v>128.425115442281</v>
       </c>
       <c r="R24" t="n">
-        <v>62.86383708599926</v>
+        <v>62.46515716743164</v>
       </c>
       <c r="S24" t="n">
-        <v>18.80674979225817</v>
+        <v>18.68747814383108</v>
       </c>
       <c r="T24" t="n">
-        <v>4.081086908874913</v>
+        <v>4.055204820349649</v>
       </c>
       <c r="U24" t="n">
-        <v>0.0666118646715166</v>
+        <v>0.06618941491321523</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8488462754862109</v>
+        <v>0.8434629266536492</v>
       </c>
       <c r="H25" t="n">
-        <v>7.547015067504682</v>
+        <v>7.499152202429723</v>
       </c>
       <c r="I25" t="n">
-        <v>25.52712253916715</v>
+        <v>25.36523055791157</v>
       </c>
       <c r="J25" t="n">
-        <v>60.01343167687511</v>
+        <v>59.632828914413</v>
       </c>
       <c r="K25" t="n">
-        <v>98.6205036428525</v>
+        <v>97.9950563875785</v>
       </c>
       <c r="L25" t="n">
-        <v>126.2002908118318</v>
+        <v>125.3999336590344</v>
       </c>
       <c r="M25" t="n">
-        <v>133.0605120746249</v>
+        <v>132.2166476753534</v>
       </c>
       <c r="N25" t="n">
-        <v>129.8966305023582</v>
+        <v>129.0728313123717</v>
       </c>
       <c r="O25" t="n">
-        <v>119.9805626478147</v>
+        <v>119.2196507600995</v>
       </c>
       <c r="P25" t="n">
-        <v>102.6640986278959</v>
+        <v>102.013007056365</v>
       </c>
       <c r="Q25" t="n">
-        <v>71.07930039548627</v>
+        <v>70.62851834006149</v>
       </c>
       <c r="R25" t="n">
-        <v>38.16721525958908</v>
+        <v>37.92516032026317</v>
       </c>
       <c r="S25" t="n">
-        <v>14.79307554642787</v>
+        <v>14.69925845813677</v>
       </c>
       <c r="T25" t="n">
-        <v>3.626888631622901</v>
+        <v>3.60388705024741</v>
       </c>
       <c r="U25" t="n">
-        <v>0.04630070593561156</v>
+        <v>0.04600706872656274</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.892357160517454</v>
+        <v>1.88035590775231</v>
       </c>
       <c r="H26" t="n">
-        <v>19.38010277014938</v>
+        <v>19.25719494026835</v>
       </c>
       <c r="I26" t="n">
-        <v>72.95509943084922</v>
+        <v>72.49242113362098</v>
       </c>
       <c r="J26" t="n">
-        <v>160.6114485524684</v>
+        <v>159.5928572255927</v>
       </c>
       <c r="K26" t="n">
-        <v>240.7149271571723</v>
+        <v>239.188322800748</v>
       </c>
       <c r="L26" t="n">
-        <v>298.6281526083584</v>
+        <v>296.7342649126228</v>
       </c>
       <c r="M26" t="n">
-        <v>332.2813592617106</v>
+        <v>330.174044287113</v>
       </c>
       <c r="N26" t="n">
-        <v>337.6580190440309</v>
+        <v>335.5166055100142</v>
       </c>
       <c r="O26" t="n">
-        <v>318.8408925291354</v>
+        <v>316.8188164523022</v>
       </c>
       <c r="P26" t="n">
-        <v>272.1233251288608</v>
+        <v>270.397529979667</v>
       </c>
       <c r="Q26" t="n">
-        <v>204.3532843178293</v>
+        <v>203.0572840332874</v>
       </c>
       <c r="R26" t="n">
-        <v>118.8707804843546</v>
+        <v>118.1169067903461</v>
       </c>
       <c r="S26" t="n">
-        <v>43.12208879529152</v>
+        <v>42.8486102479058</v>
       </c>
       <c r="T26" t="n">
-        <v>8.283793470165159</v>
+        <v>8.231257986185739</v>
       </c>
       <c r="U26" t="n">
-        <v>0.1513885728413963</v>
+        <v>0.1504284726201847</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.012500343007052</v>
+        <v>1.006079106680871</v>
       </c>
       <c r="H27" t="n">
-        <v>9.778621733778634</v>
+        <v>9.716606109259992</v>
       </c>
       <c r="I27" t="n">
-        <v>34.86020917809368</v>
+        <v>34.63912713791596</v>
       </c>
       <c r="J27" t="n">
-        <v>95.6590784592759</v>
+        <v>95.05241244303791</v>
       </c>
       <c r="K27" t="n">
-        <v>163.4966014407484</v>
+        <v>162.4597125906563</v>
       </c>
       <c r="L27" t="n">
-        <v>206.9186074960995</v>
+        <v>218.4471323519146</v>
       </c>
       <c r="M27" t="n">
-        <v>212.1538516789853</v>
+        <v>224.3481176684361</v>
       </c>
       <c r="N27" t="n">
-        <v>196.3700809899085</v>
+        <v>208.5643469793593</v>
       </c>
       <c r="O27" t="n">
-        <v>212.6567910501332</v>
+        <v>225.0241005574843</v>
       </c>
       <c r="P27" t="n">
-        <v>193.3431576045659</v>
+        <v>192.1169830994376</v>
       </c>
       <c r="Q27" t="n">
-        <v>129.2447806266545</v>
+        <v>128.425115442281</v>
       </c>
       <c r="R27" t="n">
-        <v>62.86383708599926</v>
+        <v>62.46515716743164</v>
       </c>
       <c r="S27" t="n">
-        <v>18.80674979225817</v>
+        <v>18.68747814383108</v>
       </c>
       <c r="T27" t="n">
-        <v>4.081086908874913</v>
+        <v>4.055204820349649</v>
       </c>
       <c r="U27" t="n">
-        <v>0.0666118646715166</v>
+        <v>0.06618941491321523</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8488462754862109</v>
+        <v>0.8434629266536492</v>
       </c>
       <c r="H28" t="n">
-        <v>7.547015067504682</v>
+        <v>7.499152202429723</v>
       </c>
       <c r="I28" t="n">
-        <v>25.52712253916715</v>
+        <v>25.36523055791157</v>
       </c>
       <c r="J28" t="n">
-        <v>60.01343167687511</v>
+        <v>59.632828914413</v>
       </c>
       <c r="K28" t="n">
-        <v>98.6205036428525</v>
+        <v>97.9950563875785</v>
       </c>
       <c r="L28" t="n">
-        <v>126.2002908118318</v>
+        <v>125.3999336590344</v>
       </c>
       <c r="M28" t="n">
-        <v>133.0605120746249</v>
+        <v>132.2166476753534</v>
       </c>
       <c r="N28" t="n">
-        <v>129.8966305023582</v>
+        <v>129.0728313123717</v>
       </c>
       <c r="O28" t="n">
-        <v>119.9805626478147</v>
+        <v>119.2196507600995</v>
       </c>
       <c r="P28" t="n">
-        <v>102.6640986278959</v>
+        <v>102.013007056365</v>
       </c>
       <c r="Q28" t="n">
-        <v>71.07930039548627</v>
+        <v>70.62851834006149</v>
       </c>
       <c r="R28" t="n">
-        <v>38.16721525958908</v>
+        <v>37.92516032026317</v>
       </c>
       <c r="S28" t="n">
-        <v>14.79307554642787</v>
+        <v>14.69925845813677</v>
       </c>
       <c r="T28" t="n">
-        <v>3.626888631622901</v>
+        <v>3.60388705024741</v>
       </c>
       <c r="U28" t="n">
-        <v>0.04630070593561156</v>
+        <v>0.04600706872656274</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.892357160517454</v>
+        <v>1.88035590775231</v>
       </c>
       <c r="H29" t="n">
-        <v>19.38010277014938</v>
+        <v>19.25719494026835</v>
       </c>
       <c r="I29" t="n">
-        <v>72.95509943084922</v>
+        <v>72.49242113362098</v>
       </c>
       <c r="J29" t="n">
-        <v>160.6114485524684</v>
+        <v>159.5928572255927</v>
       </c>
       <c r="K29" t="n">
-        <v>240.7149271571723</v>
+        <v>239.188322800748</v>
       </c>
       <c r="L29" t="n">
-        <v>298.6281526083584</v>
+        <v>296.7342649126228</v>
       </c>
       <c r="M29" t="n">
-        <v>332.2813592617106</v>
+        <v>330.174044287113</v>
       </c>
       <c r="N29" t="n">
-        <v>337.6580190440309</v>
+        <v>335.5166055100142</v>
       </c>
       <c r="O29" t="n">
-        <v>318.8408925291354</v>
+        <v>316.8188164523022</v>
       </c>
       <c r="P29" t="n">
-        <v>272.1233251288608</v>
+        <v>270.397529979667</v>
       </c>
       <c r="Q29" t="n">
-        <v>204.3532843178293</v>
+        <v>203.0572840332874</v>
       </c>
       <c r="R29" t="n">
-        <v>118.8707804843546</v>
+        <v>118.1169067903461</v>
       </c>
       <c r="S29" t="n">
-        <v>43.12208879529152</v>
+        <v>42.8486102479058</v>
       </c>
       <c r="T29" t="n">
-        <v>8.283793470165159</v>
+        <v>8.231257986185739</v>
       </c>
       <c r="U29" t="n">
-        <v>0.1513885728413963</v>
+        <v>0.1504284726201847</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.012500343007052</v>
+        <v>1.006079106680871</v>
       </c>
       <c r="H30" t="n">
-        <v>9.778621733778634</v>
+        <v>9.716606109259992</v>
       </c>
       <c r="I30" t="n">
-        <v>34.86020917809368</v>
+        <v>34.63912713791596</v>
       </c>
       <c r="J30" t="n">
-        <v>95.6590784592759</v>
+        <v>95.05241244303791</v>
       </c>
       <c r="K30" t="n">
-        <v>163.4966014407484</v>
+        <v>162.4597125906563</v>
       </c>
       <c r="L30" t="n">
-        <v>206.9186074960995</v>
+        <v>218.4471323519146</v>
       </c>
       <c r="M30" t="n">
-        <v>212.1538516789853</v>
+        <v>224.3481176684361</v>
       </c>
       <c r="N30" t="n">
-        <v>196.3700809899085</v>
+        <v>208.5643469793593</v>
       </c>
       <c r="O30" t="n">
-        <v>212.6567910501332</v>
+        <v>225.0241005574843</v>
       </c>
       <c r="P30" t="n">
-        <v>193.3431576045659</v>
+        <v>192.1169830994376</v>
       </c>
       <c r="Q30" t="n">
-        <v>129.2447806266545</v>
+        <v>128.425115442281</v>
       </c>
       <c r="R30" t="n">
-        <v>62.86383708599926</v>
+        <v>62.46515716743164</v>
       </c>
       <c r="S30" t="n">
-        <v>18.80674979225817</v>
+        <v>18.68747814383108</v>
       </c>
       <c r="T30" t="n">
-        <v>4.081086908874913</v>
+        <v>4.055204820349649</v>
       </c>
       <c r="U30" t="n">
-        <v>0.0666118646715166</v>
+        <v>0.06618941491321523</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8488462754862109</v>
+        <v>0.8434629266536492</v>
       </c>
       <c r="H31" t="n">
-        <v>7.547015067504682</v>
+        <v>7.499152202429723</v>
       </c>
       <c r="I31" t="n">
-        <v>25.52712253916715</v>
+        <v>25.36523055791157</v>
       </c>
       <c r="J31" t="n">
-        <v>60.01343167687511</v>
+        <v>59.632828914413</v>
       </c>
       <c r="K31" t="n">
-        <v>98.6205036428525</v>
+        <v>97.9950563875785</v>
       </c>
       <c r="L31" t="n">
-        <v>126.2002908118318</v>
+        <v>125.3999336590344</v>
       </c>
       <c r="M31" t="n">
-        <v>133.0605120746249</v>
+        <v>132.2166476753534</v>
       </c>
       <c r="N31" t="n">
-        <v>129.8966305023582</v>
+        <v>129.0728313123717</v>
       </c>
       <c r="O31" t="n">
-        <v>119.9805626478147</v>
+        <v>119.2196507600995</v>
       </c>
       <c r="P31" t="n">
-        <v>102.6640986278959</v>
+        <v>102.013007056365</v>
       </c>
       <c r="Q31" t="n">
-        <v>71.07930039548627</v>
+        <v>70.62851834006149</v>
       </c>
       <c r="R31" t="n">
-        <v>38.16721525958908</v>
+        <v>37.92516032026317</v>
       </c>
       <c r="S31" t="n">
-        <v>14.79307554642787</v>
+        <v>14.69925845813677</v>
       </c>
       <c r="T31" t="n">
-        <v>3.626888631622901</v>
+        <v>3.60388705024741</v>
       </c>
       <c r="U31" t="n">
-        <v>0.04630070593561156</v>
+        <v>0.04600706872656274</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.892357160517454</v>
+        <v>1.88035590775231</v>
       </c>
       <c r="H32" t="n">
-        <v>19.38010277014938</v>
+        <v>19.25719494026835</v>
       </c>
       <c r="I32" t="n">
-        <v>72.95509943084922</v>
+        <v>72.49242113362098</v>
       </c>
       <c r="J32" t="n">
-        <v>160.6114485524684</v>
+        <v>159.5928572255927</v>
       </c>
       <c r="K32" t="n">
-        <v>240.7149271571723</v>
+        <v>239.188322800748</v>
       </c>
       <c r="L32" t="n">
-        <v>298.6281526083584</v>
+        <v>296.7342649126228</v>
       </c>
       <c r="M32" t="n">
-        <v>332.2813592617106</v>
+        <v>330.174044287113</v>
       </c>
       <c r="N32" t="n">
-        <v>337.6580190440309</v>
+        <v>335.5166055100142</v>
       </c>
       <c r="O32" t="n">
-        <v>318.8408925291354</v>
+        <v>316.8188164523022</v>
       </c>
       <c r="P32" t="n">
-        <v>272.1233251288608</v>
+        <v>270.397529979667</v>
       </c>
       <c r="Q32" t="n">
-        <v>204.3532843178293</v>
+        <v>203.0572840332874</v>
       </c>
       <c r="R32" t="n">
-        <v>118.8707804843546</v>
+        <v>118.1169067903461</v>
       </c>
       <c r="S32" t="n">
-        <v>43.12208879529152</v>
+        <v>42.8486102479058</v>
       </c>
       <c r="T32" t="n">
-        <v>8.283793470165159</v>
+        <v>8.231257986185739</v>
       </c>
       <c r="U32" t="n">
-        <v>0.1513885728413963</v>
+        <v>0.1504284726201847</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.012500343007052</v>
+        <v>1.006079106680871</v>
       </c>
       <c r="H33" t="n">
-        <v>9.778621733778634</v>
+        <v>9.716606109259992</v>
       </c>
       <c r="I33" t="n">
-        <v>34.86020917809368</v>
+        <v>34.63912713791596</v>
       </c>
       <c r="J33" t="n">
-        <v>95.6590784592759</v>
+        <v>95.05241244303791</v>
       </c>
       <c r="K33" t="n">
-        <v>163.4966014407484</v>
+        <v>162.4597125906563</v>
       </c>
       <c r="L33" t="n">
-        <v>206.9186074960995</v>
+        <v>218.4471323519146</v>
       </c>
       <c r="M33" t="n">
-        <v>212.1538516789853</v>
+        <v>224.3481176684361</v>
       </c>
       <c r="N33" t="n">
-        <v>196.3700809899085</v>
+        <v>208.5643469793593</v>
       </c>
       <c r="O33" t="n">
-        <v>212.6567910501332</v>
+        <v>225.0241005574843</v>
       </c>
       <c r="P33" t="n">
-        <v>193.3431576045659</v>
+        <v>192.1169830994376</v>
       </c>
       <c r="Q33" t="n">
-        <v>129.2447806266545</v>
+        <v>128.425115442281</v>
       </c>
       <c r="R33" t="n">
-        <v>62.86383708599926</v>
+        <v>62.46515716743164</v>
       </c>
       <c r="S33" t="n">
-        <v>18.80674979225817</v>
+        <v>18.68747814383108</v>
       </c>
       <c r="T33" t="n">
-        <v>4.081086908874913</v>
+        <v>4.055204820349649</v>
       </c>
       <c r="U33" t="n">
-        <v>0.0666118646715166</v>
+        <v>0.06618941491321523</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8488462754862109</v>
+        <v>0.8434629266536492</v>
       </c>
       <c r="H34" t="n">
-        <v>7.547015067504682</v>
+        <v>7.499152202429723</v>
       </c>
       <c r="I34" t="n">
-        <v>25.52712253916715</v>
+        <v>25.36523055791157</v>
       </c>
       <c r="J34" t="n">
-        <v>60.01343167687511</v>
+        <v>59.632828914413</v>
       </c>
       <c r="K34" t="n">
-        <v>98.6205036428525</v>
+        <v>97.9950563875785</v>
       </c>
       <c r="L34" t="n">
-        <v>126.2002908118318</v>
+        <v>125.3999336590344</v>
       </c>
       <c r="M34" t="n">
-        <v>133.0605120746249</v>
+        <v>132.2166476753534</v>
       </c>
       <c r="N34" t="n">
-        <v>129.8966305023582</v>
+        <v>129.0728313123717</v>
       </c>
       <c r="O34" t="n">
-        <v>119.9805626478147</v>
+        <v>119.2196507600995</v>
       </c>
       <c r="P34" t="n">
-        <v>102.6640986278959</v>
+        <v>102.013007056365</v>
       </c>
       <c r="Q34" t="n">
-        <v>71.07930039548627</v>
+        <v>70.62851834006149</v>
       </c>
       <c r="R34" t="n">
-        <v>38.16721525958908</v>
+        <v>37.92516032026317</v>
       </c>
       <c r="S34" t="n">
-        <v>14.79307554642787</v>
+        <v>14.69925845813677</v>
       </c>
       <c r="T34" t="n">
-        <v>3.626888631622901</v>
+        <v>3.60388705024741</v>
       </c>
       <c r="U34" t="n">
-        <v>0.04630070593561156</v>
+        <v>0.04600706872656274</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.892357160517454</v>
+        <v>1.88035590775231</v>
       </c>
       <c r="H35" t="n">
-        <v>19.38010277014938</v>
+        <v>19.25719494026835</v>
       </c>
       <c r="I35" t="n">
-        <v>72.95509943084922</v>
+        <v>72.49242113362098</v>
       </c>
       <c r="J35" t="n">
-        <v>160.6114485524684</v>
+        <v>159.5928572255927</v>
       </c>
       <c r="K35" t="n">
-        <v>240.7149271571723</v>
+        <v>239.188322800748</v>
       </c>
       <c r="L35" t="n">
-        <v>298.6281526083584</v>
+        <v>296.7342649126228</v>
       </c>
       <c r="M35" t="n">
-        <v>332.2813592617106</v>
+        <v>330.174044287113</v>
       </c>
       <c r="N35" t="n">
-        <v>337.6580190440309</v>
+        <v>335.5166055100142</v>
       </c>
       <c r="O35" t="n">
-        <v>318.8408925291354</v>
+        <v>316.8188164523022</v>
       </c>
       <c r="P35" t="n">
-        <v>272.1233251288608</v>
+        <v>270.397529979667</v>
       </c>
       <c r="Q35" t="n">
-        <v>204.3532843178293</v>
+        <v>203.0572840332874</v>
       </c>
       <c r="R35" t="n">
-        <v>118.8707804843546</v>
+        <v>118.1169067903461</v>
       </c>
       <c r="S35" t="n">
-        <v>43.12208879529152</v>
+        <v>42.8486102479058</v>
       </c>
       <c r="T35" t="n">
-        <v>8.283793470165159</v>
+        <v>8.231257986185739</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1513885728413963</v>
+        <v>0.1504284726201847</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.012500343007052</v>
+        <v>1.006079106680871</v>
       </c>
       <c r="H36" t="n">
-        <v>9.778621733778634</v>
+        <v>9.716606109259992</v>
       </c>
       <c r="I36" t="n">
-        <v>34.86020917809368</v>
+        <v>34.63912713791596</v>
       </c>
       <c r="J36" t="n">
-        <v>95.6590784592759</v>
+        <v>95.05241244303791</v>
       </c>
       <c r="K36" t="n">
-        <v>163.4966014407484</v>
+        <v>162.4597125906563</v>
       </c>
       <c r="L36" t="n">
-        <v>206.9186074960995</v>
+        <v>218.4471323519146</v>
       </c>
       <c r="M36" t="n">
-        <v>212.1538516789853</v>
+        <v>224.3481176684361</v>
       </c>
       <c r="N36" t="n">
-        <v>196.3700809899085</v>
+        <v>208.5643469793593</v>
       </c>
       <c r="O36" t="n">
-        <v>212.6567910501332</v>
+        <v>225.0241005574843</v>
       </c>
       <c r="P36" t="n">
-        <v>193.3431576045659</v>
+        <v>192.1169830994376</v>
       </c>
       <c r="Q36" t="n">
-        <v>129.2447806266545</v>
+        <v>128.425115442281</v>
       </c>
       <c r="R36" t="n">
-        <v>62.86383708599926</v>
+        <v>62.46515716743164</v>
       </c>
       <c r="S36" t="n">
-        <v>18.80674979225817</v>
+        <v>18.68747814383108</v>
       </c>
       <c r="T36" t="n">
-        <v>4.081086908874913</v>
+        <v>4.055204820349649</v>
       </c>
       <c r="U36" t="n">
-        <v>0.0666118646715166</v>
+        <v>0.06618941491321523</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8488462754862109</v>
+        <v>0.8434629266536492</v>
       </c>
       <c r="H37" t="n">
-        <v>7.547015067504682</v>
+        <v>7.499152202429723</v>
       </c>
       <c r="I37" t="n">
-        <v>25.52712253916715</v>
+        <v>25.36523055791157</v>
       </c>
       <c r="J37" t="n">
-        <v>60.01343167687511</v>
+        <v>59.632828914413</v>
       </c>
       <c r="K37" t="n">
-        <v>98.6205036428525</v>
+        <v>97.9950563875785</v>
       </c>
       <c r="L37" t="n">
-        <v>126.2002908118318</v>
+        <v>125.3999336590344</v>
       </c>
       <c r="M37" t="n">
-        <v>133.0605120746249</v>
+        <v>132.2166476753534</v>
       </c>
       <c r="N37" t="n">
-        <v>129.8966305023582</v>
+        <v>129.0728313123717</v>
       </c>
       <c r="O37" t="n">
-        <v>119.9805626478147</v>
+        <v>119.2196507600995</v>
       </c>
       <c r="P37" t="n">
-        <v>102.6640986278959</v>
+        <v>102.013007056365</v>
       </c>
       <c r="Q37" t="n">
-        <v>71.07930039548627</v>
+        <v>70.62851834006149</v>
       </c>
       <c r="R37" t="n">
-        <v>38.16721525958908</v>
+        <v>37.92516032026317</v>
       </c>
       <c r="S37" t="n">
-        <v>14.79307554642787</v>
+        <v>14.69925845813677</v>
       </c>
       <c r="T37" t="n">
-        <v>3.626888631622901</v>
+        <v>3.60388705024741</v>
       </c>
       <c r="U37" t="n">
-        <v>0.04630070593561156</v>
+        <v>0.04600706872656274</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.892357160517454</v>
+        <v>1.88035590775231</v>
       </c>
       <c r="H38" t="n">
-        <v>19.38010277014938</v>
+        <v>19.25719494026835</v>
       </c>
       <c r="I38" t="n">
-        <v>72.95509943084922</v>
+        <v>72.49242113362098</v>
       </c>
       <c r="J38" t="n">
-        <v>160.6114485524684</v>
+        <v>159.5928572255927</v>
       </c>
       <c r="K38" t="n">
-        <v>240.7149271571723</v>
+        <v>239.188322800748</v>
       </c>
       <c r="L38" t="n">
-        <v>298.6281526083584</v>
+        <v>296.7342649126228</v>
       </c>
       <c r="M38" t="n">
-        <v>332.2813592617106</v>
+        <v>330.174044287113</v>
       </c>
       <c r="N38" t="n">
-        <v>337.6580190440309</v>
+        <v>335.5166055100142</v>
       </c>
       <c r="O38" t="n">
-        <v>318.8408925291354</v>
+        <v>316.8188164523022</v>
       </c>
       <c r="P38" t="n">
-        <v>272.1233251288608</v>
+        <v>270.397529979667</v>
       </c>
       <c r="Q38" t="n">
-        <v>204.3532843178293</v>
+        <v>203.0572840332874</v>
       </c>
       <c r="R38" t="n">
-        <v>118.8707804843546</v>
+        <v>118.1169067903461</v>
       </c>
       <c r="S38" t="n">
-        <v>43.12208879529152</v>
+        <v>42.8486102479058</v>
       </c>
       <c r="T38" t="n">
-        <v>8.283793470165159</v>
+        <v>8.231257986185739</v>
       </c>
       <c r="U38" t="n">
-        <v>0.1513885728413963</v>
+        <v>0.1504284726201847</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.012500343007052</v>
+        <v>1.006079106680871</v>
       </c>
       <c r="H39" t="n">
-        <v>9.778621733778634</v>
+        <v>9.716606109259992</v>
       </c>
       <c r="I39" t="n">
-        <v>34.86020917809368</v>
+        <v>34.63912713791596</v>
       </c>
       <c r="J39" t="n">
-        <v>95.6590784592759</v>
+        <v>95.05241244303791</v>
       </c>
       <c r="K39" t="n">
-        <v>163.4966014407484</v>
+        <v>162.4597125906563</v>
       </c>
       <c r="L39" t="n">
-        <v>206.7455639781992</v>
+        <v>218.4471323519146</v>
       </c>
       <c r="M39" t="n">
-        <v>212.1538516789853</v>
+        <v>224.3481176684361</v>
       </c>
       <c r="N39" t="n">
-        <v>196.3700809899085</v>
+        <v>208.5643469793593</v>
       </c>
       <c r="O39" t="n">
-        <v>212.8298345680335</v>
+        <v>225.0241005574843</v>
       </c>
       <c r="P39" t="n">
-        <v>193.3431576045659</v>
+        <v>192.1169830994376</v>
       </c>
       <c r="Q39" t="n">
-        <v>129.2447806266545</v>
+        <v>128.425115442281</v>
       </c>
       <c r="R39" t="n">
-        <v>62.86383708599926</v>
+        <v>62.46515716743164</v>
       </c>
       <c r="S39" t="n">
-        <v>18.80674979225817</v>
+        <v>18.68747814383108</v>
       </c>
       <c r="T39" t="n">
-        <v>4.081086908874913</v>
+        <v>4.055204820349649</v>
       </c>
       <c r="U39" t="n">
-        <v>0.0666118646715166</v>
+        <v>0.06618941491321523</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8488462754862109</v>
+        <v>0.8434629266536492</v>
       </c>
       <c r="H40" t="n">
-        <v>7.547015067504682</v>
+        <v>7.499152202429723</v>
       </c>
       <c r="I40" t="n">
-        <v>25.52712253916715</v>
+        <v>25.36523055791157</v>
       </c>
       <c r="J40" t="n">
-        <v>60.01343167687511</v>
+        <v>59.632828914413</v>
       </c>
       <c r="K40" t="n">
-        <v>98.6205036428525</v>
+        <v>97.9950563875785</v>
       </c>
       <c r="L40" t="n">
-        <v>126.2002908118318</v>
+        <v>125.3999336590344</v>
       </c>
       <c r="M40" t="n">
-        <v>133.0605120746249</v>
+        <v>132.2166476753534</v>
       </c>
       <c r="N40" t="n">
-        <v>129.8966305023582</v>
+        <v>129.0728313123717</v>
       </c>
       <c r="O40" t="n">
-        <v>119.9805626478147</v>
+        <v>119.2196507600995</v>
       </c>
       <c r="P40" t="n">
-        <v>102.6640986278959</v>
+        <v>102.013007056365</v>
       </c>
       <c r="Q40" t="n">
-        <v>71.07930039548627</v>
+        <v>70.62851834006149</v>
       </c>
       <c r="R40" t="n">
-        <v>38.16721525958908</v>
+        <v>37.92516032026317</v>
       </c>
       <c r="S40" t="n">
-        <v>14.79307554642787</v>
+        <v>14.69925845813677</v>
       </c>
       <c r="T40" t="n">
-        <v>3.626888631622901</v>
+        <v>3.60388705024741</v>
       </c>
       <c r="U40" t="n">
-        <v>0.04630070593561156</v>
+        <v>0.04600706872656274</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.892357160517454</v>
+        <v>1.88035590775231</v>
       </c>
       <c r="H41" t="n">
-        <v>19.38010277014938</v>
+        <v>19.25719494026835</v>
       </c>
       <c r="I41" t="n">
-        <v>72.95509943084922</v>
+        <v>72.49242113362098</v>
       </c>
       <c r="J41" t="n">
-        <v>160.6114485524684</v>
+        <v>159.5928572255927</v>
       </c>
       <c r="K41" t="n">
-        <v>240.7149271571723</v>
+        <v>239.188322800748</v>
       </c>
       <c r="L41" t="n">
-        <v>298.6281526083584</v>
+        <v>296.7342649126228</v>
       </c>
       <c r="M41" t="n">
-        <v>332.2813592617106</v>
+        <v>330.174044287113</v>
       </c>
       <c r="N41" t="n">
-        <v>337.6580190440309</v>
+        <v>335.5166055100142</v>
       </c>
       <c r="O41" t="n">
-        <v>318.8408925291354</v>
+        <v>316.8188164523022</v>
       </c>
       <c r="P41" t="n">
-        <v>272.1233251288608</v>
+        <v>270.397529979667</v>
       </c>
       <c r="Q41" t="n">
-        <v>204.3532843178293</v>
+        <v>203.0572840332874</v>
       </c>
       <c r="R41" t="n">
-        <v>118.8707804843546</v>
+        <v>118.1169067903461</v>
       </c>
       <c r="S41" t="n">
-        <v>43.12208879529152</v>
+        <v>42.8486102479058</v>
       </c>
       <c r="T41" t="n">
-        <v>8.283793470165159</v>
+        <v>8.231257986185739</v>
       </c>
       <c r="U41" t="n">
-        <v>0.1513885728413963</v>
+        <v>0.1504284726201847</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.012500343007052</v>
+        <v>1.006079106680871</v>
       </c>
       <c r="H42" t="n">
-        <v>9.778621733778634</v>
+        <v>9.716606109259992</v>
       </c>
       <c r="I42" t="n">
-        <v>34.86020917809368</v>
+        <v>34.63912713791596</v>
       </c>
       <c r="J42" t="n">
-        <v>95.6590784592759</v>
+        <v>95.05241244303791</v>
       </c>
       <c r="K42" t="n">
-        <v>163.4966014407484</v>
+        <v>162.4597125906563</v>
       </c>
       <c r="L42" t="n">
-        <v>204.7771939620826</v>
+        <v>218.4471323519146</v>
       </c>
       <c r="M42" t="n">
-        <v>209.9259163860183</v>
+        <v>224.3481176684361</v>
       </c>
       <c r="N42" t="n">
-        <v>194.2286674558916</v>
+        <v>208.5643469793593</v>
       </c>
       <c r="O42" t="n">
-        <v>210.6884210340166</v>
+        <v>225.0241005574843</v>
       </c>
       <c r="P42" t="n">
-        <v>193.3431576045659</v>
+        <v>192.1169830994376</v>
       </c>
       <c r="Q42" t="n">
-        <v>129.2447806266545</v>
+        <v>128.425115442281</v>
       </c>
       <c r="R42" t="n">
-        <v>62.86383708599926</v>
+        <v>62.46515716743164</v>
       </c>
       <c r="S42" t="n">
-        <v>18.80674979225817</v>
+        <v>18.68747814383108</v>
       </c>
       <c r="T42" t="n">
-        <v>4.081086908874913</v>
+        <v>4.055204820349649</v>
       </c>
       <c r="U42" t="n">
-        <v>0.0666118646715166</v>
+        <v>0.06618941491321523</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8488462754862109</v>
+        <v>0.8434629266536492</v>
       </c>
       <c r="H43" t="n">
-        <v>7.547015067504682</v>
+        <v>7.499152202429723</v>
       </c>
       <c r="I43" t="n">
-        <v>25.52712253916715</v>
+        <v>25.36523055791157</v>
       </c>
       <c r="J43" t="n">
-        <v>60.01343167687511</v>
+        <v>59.632828914413</v>
       </c>
       <c r="K43" t="n">
-        <v>98.6205036428525</v>
+        <v>97.9950563875785</v>
       </c>
       <c r="L43" t="n">
-        <v>126.2002908118318</v>
+        <v>125.3999336590344</v>
       </c>
       <c r="M43" t="n">
-        <v>133.0605120746249</v>
+        <v>132.2166476753534</v>
       </c>
       <c r="N43" t="n">
-        <v>129.8966305023582</v>
+        <v>129.0728313123717</v>
       </c>
       <c r="O43" t="n">
-        <v>119.9805626478147</v>
+        <v>119.2196507600995</v>
       </c>
       <c r="P43" t="n">
-        <v>102.6640986278959</v>
+        <v>102.013007056365</v>
       </c>
       <c r="Q43" t="n">
-        <v>71.07930039548627</v>
+        <v>70.62851834006149</v>
       </c>
       <c r="R43" t="n">
-        <v>38.16721525958908</v>
+        <v>37.92516032026317</v>
       </c>
       <c r="S43" t="n">
-        <v>14.79307554642787</v>
+        <v>14.69925845813677</v>
       </c>
       <c r="T43" t="n">
-        <v>3.626888631622901</v>
+        <v>3.60388705024741</v>
       </c>
       <c r="U43" t="n">
-        <v>0.04630070593561156</v>
+        <v>0.04600706872656274</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.892357160517454</v>
+        <v>1.88035590775231</v>
       </c>
       <c r="H44" t="n">
-        <v>19.38010277014938</v>
+        <v>19.25719494026835</v>
       </c>
       <c r="I44" t="n">
-        <v>72.95509943084922</v>
+        <v>72.49242113362098</v>
       </c>
       <c r="J44" t="n">
-        <v>160.6114485524684</v>
+        <v>159.5928572255927</v>
       </c>
       <c r="K44" t="n">
-        <v>240.7149271571723</v>
+        <v>239.188322800748</v>
       </c>
       <c r="L44" t="n">
-        <v>298.6281526083584</v>
+        <v>296.7342649126228</v>
       </c>
       <c r="M44" t="n">
-        <v>332.2813592617106</v>
+        <v>330.174044287113</v>
       </c>
       <c r="N44" t="n">
-        <v>337.6580190440309</v>
+        <v>335.5166055100142</v>
       </c>
       <c r="O44" t="n">
-        <v>318.8408925291354</v>
+        <v>316.8188164523022</v>
       </c>
       <c r="P44" t="n">
-        <v>272.1233251288608</v>
+        <v>270.397529979667</v>
       </c>
       <c r="Q44" t="n">
-        <v>204.3532843178293</v>
+        <v>203.0572840332874</v>
       </c>
       <c r="R44" t="n">
-        <v>118.8707804843546</v>
+        <v>118.1169067903461</v>
       </c>
       <c r="S44" t="n">
-        <v>43.12208879529152</v>
+        <v>42.8486102479058</v>
       </c>
       <c r="T44" t="n">
-        <v>8.283793470165159</v>
+        <v>8.231257986185739</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1513885728413963</v>
+        <v>0.1504284726201847</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.012500343007052</v>
+        <v>1.006079106680871</v>
       </c>
       <c r="H45" t="n">
-        <v>9.778621733778634</v>
+        <v>9.716606109259992</v>
       </c>
       <c r="I45" t="n">
-        <v>34.86020917809368</v>
+        <v>34.63912713791596</v>
       </c>
       <c r="J45" t="n">
-        <v>95.6590784592759</v>
+        <v>95.05241244303791</v>
       </c>
       <c r="K45" t="n">
-        <v>163.4966014407484</v>
+        <v>162.4597125906563</v>
       </c>
       <c r="L45" t="n">
-        <v>204.6906722031325</v>
+        <v>218.4471323519146</v>
       </c>
       <c r="M45" t="n">
-        <v>210.0124381449685</v>
+        <v>224.3481176684361</v>
       </c>
       <c r="N45" t="n">
-        <v>194.2286674558916</v>
+        <v>208.5643469793593</v>
       </c>
       <c r="O45" t="n">
-        <v>210.6884210340166</v>
+        <v>225.0241005574843</v>
       </c>
       <c r="P45" t="n">
-        <v>193.3431576045659</v>
+        <v>192.1169830994376</v>
       </c>
       <c r="Q45" t="n">
-        <v>129.2447806266545</v>
+        <v>128.425115442281</v>
       </c>
       <c r="R45" t="n">
-        <v>62.86383708599926</v>
+        <v>62.46515716743164</v>
       </c>
       <c r="S45" t="n">
-        <v>18.80674979225817</v>
+        <v>18.68747814383108</v>
       </c>
       <c r="T45" t="n">
-        <v>4.081086908874913</v>
+        <v>4.055204820349649</v>
       </c>
       <c r="U45" t="n">
-        <v>0.0666118646715166</v>
+        <v>0.06618941491321523</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8488462754862109</v>
+        <v>0.8434629266536492</v>
       </c>
       <c r="H46" t="n">
-        <v>7.547015067504682</v>
+        <v>7.499152202429723</v>
       </c>
       <c r="I46" t="n">
-        <v>25.52712253916715</v>
+        <v>25.36523055791157</v>
       </c>
       <c r="J46" t="n">
-        <v>60.01343167687511</v>
+        <v>59.632828914413</v>
       </c>
       <c r="K46" t="n">
-        <v>98.6205036428525</v>
+        <v>97.9950563875785</v>
       </c>
       <c r="L46" t="n">
-        <v>126.2002908118318</v>
+        <v>125.3999336590344</v>
       </c>
       <c r="M46" t="n">
-        <v>133.0605120746249</v>
+        <v>132.2166476753534</v>
       </c>
       <c r="N46" t="n">
-        <v>129.8966305023582</v>
+        <v>129.0728313123717</v>
       </c>
       <c r="O46" t="n">
-        <v>119.9805626478147</v>
+        <v>119.2196507600995</v>
       </c>
       <c r="P46" t="n">
-        <v>102.6640986278959</v>
+        <v>102.013007056365</v>
       </c>
       <c r="Q46" t="n">
-        <v>71.07930039548627</v>
+        <v>70.62851834006149</v>
       </c>
       <c r="R46" t="n">
-        <v>38.16721525958908</v>
+        <v>37.92516032026317</v>
       </c>
       <c r="S46" t="n">
-        <v>14.79307554642787</v>
+        <v>14.69925845813677</v>
       </c>
       <c r="T46" t="n">
-        <v>3.626888631622901</v>
+        <v>3.60388705024741</v>
       </c>
       <c r="U46" t="n">
-        <v>0.04630070593561156</v>
+        <v>0.04600706872656274</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35889,16 +35889,16 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>2.141413534016885</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>2.141413534016885</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>2.141413534016885</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>2.054891775066708</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -35968,16 +35968,16 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>2.054891775066707</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>2.141413534016885</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>2.141413534016885</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>2.141413534016885</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36129,16 +36129,16 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>2.141413534016885</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>2.141413534016885</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>2.054891775066708</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>2.141413534016885</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -36205,16 +36205,16 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>2.141413534016885</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>2.141413534016885</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>2.141413534016885</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>2.054891775066708</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36363,16 +36363,16 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>4.28282706803352</v>
+        <v>16.47709305748432</v>
       </c>
       <c r="M23" t="n">
-        <v>4.28282706803352</v>
+        <v>16.47709305748432</v>
       </c>
       <c r="N23" t="n">
-        <v>4.28282706803352</v>
+        <v>16.47709305748432</v>
       </c>
       <c r="O23" t="n">
-        <v>4.109783550133176</v>
+        <v>15.81135192384858</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -36442,16 +36442,16 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>4.28282706803352</v>
+        <v>15.81135192384858</v>
       </c>
       <c r="M24" t="n">
-        <v>4.28282706803352</v>
+        <v>16.47709305748432</v>
       </c>
       <c r="N24" t="n">
-        <v>4.109783550133176</v>
+        <v>16.47709305748432</v>
       </c>
       <c r="O24" t="n">
-        <v>4.28282706803352</v>
+        <v>16.47709305748432</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36597,22 +36597,22 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>3.111327272391094</v>
+        <v>1.584722915966836</v>
       </c>
       <c r="L26" t="n">
-        <v>4.28282706803352</v>
+        <v>16.47709305748432</v>
       </c>
       <c r="M26" t="n">
-        <v>4.28282706803352</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>2.141413534016635</v>
+        <v>16.47709305748432</v>
       </c>
       <c r="O26" t="n">
-        <v>3.139869811758967</v>
+        <v>14.81678425319527</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>15.8869378121708</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -36679,16 +36679,16 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>4.28282706803352</v>
+        <v>15.81135192384858</v>
       </c>
       <c r="M27" t="n">
-        <v>4.28282706803352</v>
+        <v>16.47709305748432</v>
       </c>
       <c r="N27" t="n">
-        <v>4.28282706803352</v>
+        <v>16.47709305748432</v>
       </c>
       <c r="O27" t="n">
-        <v>4.109783550133176</v>
+        <v>16.47709305748432</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36834,22 +36834,22 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>3.111327272391094</v>
+        <v>1.584722915966836</v>
       </c>
       <c r="L29" t="n">
-        <v>4.28282706803352</v>
+        <v>16.47709305748432</v>
       </c>
       <c r="M29" t="n">
-        <v>4.28282706803352</v>
+        <v>16.47709305748432</v>
       </c>
       <c r="N29" t="n">
-        <v>4.28282706803352</v>
+        <v>16.47709305748432</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>14.22662900788175</v>
       </c>
       <c r="P29" t="n">
-        <v>0.9984562777420812</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -36916,16 +36916,16 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>4.28282706803352</v>
+        <v>15.81135192384858</v>
       </c>
       <c r="M30" t="n">
-        <v>4.28282706803352</v>
+        <v>16.47709305748432</v>
       </c>
       <c r="N30" t="n">
-        <v>4.28282706803352</v>
+        <v>16.47709305748432</v>
       </c>
       <c r="O30" t="n">
-        <v>4.109783550133176</v>
+        <v>16.47709305748432</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37074,19 +37074,19 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>16.47709305748432</v>
       </c>
       <c r="M32" t="n">
-        <v>4.109783550133177</v>
+        <v>16.47709305748432</v>
       </c>
       <c r="N32" t="n">
-        <v>4.28282706803352</v>
+        <v>16.47709305748432</v>
       </c>
       <c r="O32" t="n">
-        <v>4.28282706803352</v>
+        <v>15.81135192384858</v>
       </c>
       <c r="P32" t="n">
-        <v>4.28282706803352</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -37153,16 +37153,16 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>4.28282706803352</v>
+        <v>15.81135192384858</v>
       </c>
       <c r="M33" t="n">
-        <v>4.28282706803352</v>
+        <v>16.47709305748432</v>
       </c>
       <c r="N33" t="n">
-        <v>4.28282706803352</v>
+        <v>16.47709305748432</v>
       </c>
       <c r="O33" t="n">
-        <v>4.109783550133176</v>
+        <v>16.47709305748432</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37311,19 +37311,19 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>16.47709305748431</v>
       </c>
       <c r="M35" t="n">
-        <v>4.109783550133177</v>
+        <v>16.47709305748431</v>
       </c>
       <c r="N35" t="n">
-        <v>4.28282706803352</v>
+        <v>16.47709305748431</v>
       </c>
       <c r="O35" t="n">
-        <v>4.28282706803352</v>
+        <v>15.81135192384859</v>
       </c>
       <c r="P35" t="n">
-        <v>4.28282706803352</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -37390,16 +37390,16 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>4.28282706803352</v>
+        <v>15.81135192384858</v>
       </c>
       <c r="M36" t="n">
-        <v>4.28282706803352</v>
+        <v>16.47709305748431</v>
       </c>
       <c r="N36" t="n">
-        <v>4.28282706803352</v>
+        <v>16.47709305748431</v>
       </c>
       <c r="O36" t="n">
-        <v>4.109783550133176</v>
+        <v>16.47709305748431</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37545,22 +37545,22 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>1.584722915966836</v>
       </c>
       <c r="L38" t="n">
-        <v>1.968370016116542</v>
+        <v>16.47709305748431</v>
       </c>
       <c r="M38" t="n">
-        <v>4.28282706803352</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>2.141413534016635</v>
+        <v>16.47709305748431</v>
       </c>
       <c r="O38" t="n">
-        <v>4.28282706803352</v>
+        <v>14.81678425319526</v>
       </c>
       <c r="P38" t="n">
-        <v>4.28282706803352</v>
+        <v>15.8869378121708</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -37627,16 +37627,16 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>4.109783550133177</v>
+        <v>15.81135192384858</v>
       </c>
       <c r="M39" t="n">
-        <v>4.28282706803352</v>
+        <v>16.47709305748431</v>
       </c>
       <c r="N39" t="n">
-        <v>4.28282706803352</v>
+        <v>16.47709305748431</v>
       </c>
       <c r="O39" t="n">
-        <v>4.28282706803352</v>
+        <v>16.47709305748432</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37782,22 +37782,22 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>2.141413534016635</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>2.141413534016635</v>
+        <v>16.4015071691621</v>
       </c>
       <c r="N41" t="n">
-        <v>2.141413534016635</v>
+        <v>16.47709305748431</v>
       </c>
       <c r="O41" t="n">
-        <v>2.054891775066467</v>
+        <v>16.47709305748431</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>15.8869378121708</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37864,16 +37864,16 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>2.141413534016635</v>
+        <v>15.81135192384858</v>
       </c>
       <c r="M42" t="n">
-        <v>2.054891775066467</v>
+        <v>16.47709305748431</v>
       </c>
       <c r="N42" t="n">
-        <v>2.141413534016635</v>
+        <v>16.47709305748431</v>
       </c>
       <c r="O42" t="n">
-        <v>2.141413534016635</v>
+        <v>16.47709305748431</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38019,22 +38019,22 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>2.141413534016635</v>
+        <v>1.584722915966836</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>16.47709305748431</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>2.141413534016635</v>
+        <v>16.47709305748431</v>
       </c>
       <c r="O44" t="n">
-        <v>2.141413534016635</v>
+        <v>14.81678425319526</v>
       </c>
       <c r="P44" t="n">
-        <v>2.054891775066467</v>
+        <v>15.8869378121708</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38101,16 +38101,16 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>2.054891775066467</v>
+        <v>15.81135192384858</v>
       </c>
       <c r="M45" t="n">
-        <v>2.141413534016635</v>
+        <v>16.47709305748431</v>
       </c>
       <c r="N45" t="n">
-        <v>2.141413534016635</v>
+        <v>16.47709305748431</v>
       </c>
       <c r="O45" t="n">
-        <v>2.141413534016635</v>
+        <v>16.47709305748431</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
